--- a/data/港口25吨牵引车.xlsx
+++ b/data/港口25吨牵引车.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/车辆数据(1)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00FDEEE3-5C26-434E-AB31-83E8649E5D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C23AD4-B213-F144-9B0F-99B1A6FDD7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="20920" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20920" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="75">
   <si>
     <t>单位</t>
   </si>
@@ -259,6 +259,9 @@
   </si>
   <si>
     <t>是</t>
+  </si>
+  <si>
+    <t>电池容量</t>
   </si>
 </sst>
 </file>
@@ -705,7 +708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C8" sqref="C8:L8"/>
     </sheetView>
   </sheetViews>
@@ -1553,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2147,40 +2150,40 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="4" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="5">
-        <v>6.2111801242236</v>
-      </c>
-      <c r="D14" s="5">
-        <v>6.1490683229813703</v>
-      </c>
-      <c r="E14" s="5">
-        <v>6.0881987577639798</v>
-      </c>
-      <c r="F14" s="5">
-        <v>6.02853416149068</v>
-      </c>
-      <c r="G14" s="5">
-        <v>5.9700387577639704</v>
-      </c>
-      <c r="H14" s="5">
-        <v>5.9126781863354001</v>
-      </c>
-      <c r="I14" s="5">
-        <v>5.85641943304348</v>
-      </c>
-      <c r="J14" s="5">
-        <v>5.80123076391056</v>
-      </c>
-      <c r="K14" s="5">
-        <v>5.7470816631107597</v>
-      </c>
-      <c r="L14" s="5">
-        <v>5.69394277454363</v>
+        <v>27</v>
+      </c>
+      <c r="C14" s="4">
+        <v>380</v>
+      </c>
+      <c r="D14" s="4">
+        <v>380</v>
+      </c>
+      <c r="E14" s="4">
+        <v>380</v>
+      </c>
+      <c r="F14" s="4">
+        <v>380</v>
+      </c>
+      <c r="G14" s="4">
+        <v>380</v>
+      </c>
+      <c r="H14" s="4">
+        <v>380</v>
+      </c>
+      <c r="I14" s="4">
+        <v>380</v>
+      </c>
+      <c r="J14" s="4">
+        <v>380</v>
+      </c>
+      <c r="K14" s="4">
+        <v>380</v>
+      </c>
+      <c r="L14" s="4">
+        <v>380</v>
       </c>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
@@ -2188,83 +2191,83 @@
       <c r="P14" s="13"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="1" t="s">
-        <v>8</v>
+      <c r="A15" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C15" s="5">
-        <v>2360.24844720497</v>
+        <v>6.2111801242236</v>
       </c>
       <c r="D15" s="5">
-        <v>2336.64596273292</v>
+        <v>6.1490683229813703</v>
       </c>
       <c r="E15" s="5">
-        <v>2313.5155279503101</v>
+        <v>6.0881987577639798</v>
       </c>
       <c r="F15" s="5">
-        <v>2290.8429813664602</v>
+        <v>6.02853416149068</v>
       </c>
       <c r="G15" s="5">
-        <v>2268.6147279503102</v>
+        <v>5.9700387577639704</v>
       </c>
       <c r="H15" s="5">
-        <v>2246.8177108074501</v>
+        <v>5.9126781863354001</v>
       </c>
       <c r="I15" s="5">
-        <v>2225.4393845565201</v>
+        <v>5.85641943304348</v>
       </c>
       <c r="J15" s="5">
-        <v>2204.4676902860101</v>
+        <v>5.80123076391056</v>
       </c>
       <c r="K15" s="5">
-        <v>2183.8910319820902</v>
+        <v>5.7470816631107597</v>
       </c>
       <c r="L15" s="5">
-        <v>2163.6982543265799</v>
-      </c>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
+        <v>5.69394277454363</v>
+      </c>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="13"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="7">
-        <v>2</v>
-      </c>
-      <c r="D16" s="7">
-        <v>2</v>
-      </c>
-      <c r="E16" s="7">
-        <v>2</v>
-      </c>
-      <c r="F16" s="7">
-        <v>2</v>
-      </c>
-      <c r="G16" s="7">
-        <v>2</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>2</v>
-      </c>
-      <c r="J16" s="7">
-        <v>2</v>
-      </c>
-      <c r="K16" s="7">
-        <v>2</v>
-      </c>
-      <c r="L16" s="7">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="5">
+        <v>2360.24844720497</v>
+      </c>
+      <c r="D16" s="5">
+        <v>2336.64596273292</v>
+      </c>
+      <c r="E16" s="5">
+        <v>2313.5155279503101</v>
+      </c>
+      <c r="F16" s="5">
+        <v>2290.8429813664602</v>
+      </c>
+      <c r="G16" s="5">
+        <v>2268.6147279503102</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2246.8177108074501</v>
+      </c>
+      <c r="I16" s="5">
+        <v>2225.4393845565201</v>
+      </c>
+      <c r="J16" s="5">
+        <v>2204.4676902860101</v>
+      </c>
+      <c r="K16" s="5">
+        <v>2183.8910319820902</v>
+      </c>
+      <c r="L16" s="5">
+        <v>2163.6982543265799</v>
       </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -2272,41 +2275,41 @@
       <c r="P16" s="6"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="13">
-        <v>250</v>
-      </c>
-      <c r="D17" s="13">
-        <v>250</v>
-      </c>
-      <c r="E17" s="13">
-        <v>250</v>
-      </c>
-      <c r="F17" s="13">
-        <v>250</v>
-      </c>
-      <c r="G17" s="13">
-        <v>250</v>
-      </c>
-      <c r="H17" s="13">
-        <v>250</v>
-      </c>
-      <c r="I17" s="13">
-        <v>250</v>
-      </c>
-      <c r="J17" s="13">
-        <v>250</v>
-      </c>
-      <c r="K17" s="13">
-        <v>250</v>
-      </c>
-      <c r="L17" s="13">
-        <v>250</v>
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2</v>
+      </c>
+      <c r="D17" s="7">
+        <v>2</v>
+      </c>
+      <c r="E17" s="7">
+        <v>2</v>
+      </c>
+      <c r="F17" s="7">
+        <v>2</v>
+      </c>
+      <c r="G17" s="7">
+        <v>2</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2</v>
+      </c>
+      <c r="J17" s="7">
+        <v>2</v>
+      </c>
+      <c r="K17" s="7">
+        <v>2</v>
+      </c>
+      <c r="L17" s="7">
+        <v>2</v>
       </c>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -2315,191 +2318,233 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="14">
-        <v>0.56499999999999995</v>
+        <v>18</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="13">
+        <v>250</v>
       </c>
       <c r="D18" s="13">
-        <v>0.57030000000000003</v>
+        <v>250</v>
       </c>
       <c r="E18" s="13">
-        <v>0.57030000000000003</v>
+        <v>250</v>
       </c>
       <c r="F18" s="13">
-        <v>0.57030000000000003</v>
+        <v>250</v>
       </c>
       <c r="G18" s="13">
-        <v>0.57030000000000003</v>
+        <v>250</v>
       </c>
       <c r="H18" s="13">
-        <v>0.57030000000000003</v>
+        <v>250</v>
       </c>
       <c r="I18" s="13">
-        <v>0.57030000000000003</v>
+        <v>250</v>
       </c>
       <c r="J18" s="13">
-        <v>0.57030000000000003</v>
+        <v>250</v>
       </c>
       <c r="K18" s="13">
-        <v>0.57030000000000003</v>
+        <v>250</v>
       </c>
       <c r="L18" s="13">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="M18" s="13">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="N18" s="13">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="O18" s="13">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="P18" s="13">
-        <v>0.57030000000000003</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="D19" s="13">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="F19" s="13">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="J19" s="13">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="K19" s="13">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="L19" s="13">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="M19" s="13">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="N19" s="13">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="O19" s="13">
+        <v>0.57030000000000003</v>
+      </c>
+      <c r="P19" s="13">
+        <v>0.57030000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C20" s="5">
         <v>0.2</v>
       </c>
-      <c r="D19" s="6">
-        <f t="shared" ref="D19:L19" si="3">C19</f>
+      <c r="D20" s="6">
+        <f t="shared" ref="D20:L20" si="3">C20</f>
         <v>0.2</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E20" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F20" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G20" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H20" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I20" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J20" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K20" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L20" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="12" t="s">
+    <row r="21" spans="1:16">
+      <c r="A21" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C21" s="5">
         <v>5000</v>
       </c>
-      <c r="D20" s="6">
-        <f t="shared" ref="D20:L20" si="4">C20</f>
+      <c r="D21" s="6">
+        <f t="shared" ref="D21:L21" si="4">C21</f>
         <v>5000</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E21" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F21" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G21" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H21" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I21" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J21" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K21" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L21" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="12" t="s">
+    <row r="22" spans="1:16">
+      <c r="A22" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C22" s="5">
         <v>2000</v>
       </c>
-      <c r="D21" s="6">
-        <f t="shared" ref="D21:L21" si="5">C21</f>
+      <c r="D22" s="6">
+        <f t="shared" ref="D22:L22" si="5">C22</f>
         <v>2000</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E22" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F22" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G22" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H22" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I22" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J22" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K22" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L22" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
@@ -2512,10 +2557,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -3274,343 +3319,385 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5">
+        <v>100</v>
+      </c>
+      <c r="D18" s="5">
+        <v>98</v>
+      </c>
+      <c r="E18" s="5">
+        <v>96</v>
+      </c>
+      <c r="F18" s="5">
+        <v>94</v>
+      </c>
+      <c r="G18" s="5">
+        <v>92</v>
+      </c>
+      <c r="H18" s="5">
+        <v>90</v>
+      </c>
+      <c r="I18" s="5">
+        <v>88</v>
+      </c>
+      <c r="J18" s="5">
+        <v>86</v>
+      </c>
+      <c r="K18" s="5">
+        <v>84</v>
+      </c>
+      <c r="L18" s="5">
+        <v>82</v>
+      </c>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C19" s="5">
         <v>6.2111801242236</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D19" s="5">
         <v>6.1490683229813703</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E19" s="5">
         <v>6.0881987577639798</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F19" s="5">
         <v>6.02853416149068</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G19" s="5">
         <v>5.9700387577639704</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H19" s="5">
         <v>5.9126781863354001</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I19" s="5">
         <v>5.85641943304348</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J19" s="5">
         <v>5.80123076391056</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K19" s="5">
         <v>5.7470816631107597</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L19" s="5">
         <v>5.69394277454363</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="5">
-        <v>621.11801242236004</v>
-      </c>
-      <c r="D19" s="5">
-        <v>602.60869565217399</v>
-      </c>
-      <c r="E19" s="5">
-        <v>584.46708074534195</v>
-      </c>
-      <c r="F19" s="5">
-        <v>566.682211180124</v>
-      </c>
-      <c r="G19" s="5">
-        <v>549.24356571428495</v>
-      </c>
-      <c r="H19" s="5">
-        <v>532.14103677018602</v>
-      </c>
-      <c r="I19" s="5">
-        <v>515.36491010782595</v>
-      </c>
-      <c r="J19" s="5">
-        <v>498.90584569630801</v>
-      </c>
-      <c r="K19" s="5">
-        <v>482.75485970130399</v>
-      </c>
-      <c r="L19" s="5">
-        <v>466.90330751257801</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="5">
+        <v>621.11801242236004</v>
+      </c>
+      <c r="D20" s="5">
+        <v>602.60869565217399</v>
+      </c>
+      <c r="E20" s="5">
+        <v>584.46708074534195</v>
+      </c>
+      <c r="F20" s="5">
+        <v>566.682211180124</v>
+      </c>
+      <c r="G20" s="5">
+        <v>549.24356571428495</v>
+      </c>
+      <c r="H20" s="5">
+        <v>532.14103677018602</v>
+      </c>
+      <c r="I20" s="5">
+        <v>515.36491010782595</v>
+      </c>
+      <c r="J20" s="5">
+        <v>498.90584569630801</v>
+      </c>
+      <c r="K20" s="5">
+        <v>482.75485970130399</v>
+      </c>
+      <c r="L20" s="5">
+        <v>466.90330751257801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C21" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D21" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E21" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F21" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G21" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H21" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I21" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J20" s="7">
+      <c r="J21" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K20" s="7">
+      <c r="K21" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L21" s="7">
         <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="13">
-        <v>500</v>
-      </c>
-      <c r="D21" s="13">
-        <v>500</v>
-      </c>
-      <c r="E21" s="13">
-        <v>500</v>
-      </c>
-      <c r="F21" s="13">
-        <v>500</v>
-      </c>
-      <c r="G21" s="13">
-        <v>500</v>
-      </c>
-      <c r="H21" s="13">
-        <v>500</v>
-      </c>
-      <c r="I21" s="13">
-        <v>500</v>
-      </c>
-      <c r="J21" s="13">
-        <v>500</v>
-      </c>
-      <c r="K21" s="13">
-        <v>500</v>
-      </c>
-      <c r="L21" s="13">
-        <v>500</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="13">
+        <v>500</v>
+      </c>
+      <c r="D22" s="13">
+        <v>500</v>
+      </c>
+      <c r="E22" s="13">
+        <v>500</v>
+      </c>
+      <c r="F22" s="13">
+        <v>500</v>
+      </c>
+      <c r="G22" s="13">
+        <v>500</v>
+      </c>
+      <c r="H22" s="13">
+        <v>500</v>
+      </c>
+      <c r="I22" s="13">
+        <v>500</v>
+      </c>
+      <c r="J22" s="13">
+        <v>500</v>
+      </c>
+      <c r="K22" s="13">
+        <v>500</v>
+      </c>
+      <c r="L22" s="13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B23" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C23" s="14">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D22" s="14">
+      <c r="D23" s="14">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E23" s="14">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F23" s="14">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G23" s="14">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H23" s="14">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I23" s="14">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J22" s="14">
+      <c r="J23" s="14">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K23" s="14">
         <v>4.9000000000000004</v>
       </c>
-      <c r="L22" s="14">
+      <c r="L23" s="14">
         <v>4.9000000000000004</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M23" s="14">
         <v>4.9000000000000004</v>
       </c>
-      <c r="N22" s="14">
+      <c r="N23" s="14">
         <v>4.9000000000000004</v>
       </c>
-      <c r="O22" s="14">
+      <c r="O23" s="14">
         <v>4.9000000000000004</v>
       </c>
-      <c r="P22" s="14">
+      <c r="P23" s="14">
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="1" t="s">
+    <row r="24" spans="1:16">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C24" s="5">
         <v>0.2</v>
       </c>
-      <c r="D23" s="6">
-        <f t="shared" ref="D23:L23" si="3">C23</f>
+      <c r="D24" s="6">
+        <f t="shared" ref="D24:L24" si="3">C24</f>
         <v>0.2</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E24" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F24" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G24" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H24" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I24" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J24" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K24" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L24" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="1" t="s">
+    <row r="25" spans="1:16">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C25" s="5">
         <v>5000</v>
       </c>
-      <c r="D24" s="6">
-        <f t="shared" ref="D24:L24" si="4">C24</f>
+      <c r="D25" s="6">
+        <f t="shared" ref="D25:L25" si="4">C25</f>
         <v>5000</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E25" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F25" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G25" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H25" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I25" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J25" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K25" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L25" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:16">
+      <c r="A26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C26" s="5">
         <v>2000</v>
       </c>
-      <c r="D25" s="6">
-        <f t="shared" ref="D25:L25" si="5">C25</f>
+      <c r="D26" s="6">
+        <f t="shared" ref="D26:L26" si="5">C26</f>
         <v>2000</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E26" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F26" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G26" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H26" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I26" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J26" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K26" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L26" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>

--- a/data/港口25吨牵引车.xlsx
+++ b/data/港口25吨牵引车.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/车辆数据(1)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C23AD4-B213-F144-9B0F-99B1A6FDD7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1954DC-E027-7344-9334-9127CAC50B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="20920" windowHeight="9660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6680" yWindow="3300" windowWidth="20920" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="81">
   <si>
     <t>单位</t>
   </si>
@@ -258,10 +258,35 @@
     <t>港口</t>
   </si>
   <si>
-    <t>是</t>
-  </si>
-  <si>
     <t>电池容量</t>
+  </si>
+  <si>
+    <t>平均负载率</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>%,考虑每趟满载的可能性</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>行驶时间占比</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>%,考虑接不到单或高频装卸货时间</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>港口是集装箱，按整车算价，不受电池质量影响</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -269,9 +294,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -322,6 +347,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -385,7 +418,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -395,28 +428,25 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -428,7 +458,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -718,132 +754,132 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3">
         <v>2021</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>2022</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>2023</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>2024</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="3">
         <v>2025</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="3">
         <v>2026</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="3">
         <v>2027</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="3">
         <v>2028</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="3">
         <v>2029</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="3">
         <v>2030</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1" s="3">
         <v>2031</v>
       </c>
-      <c r="N1" s="4">
+      <c r="N1" s="3">
         <v>2032</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1" s="3">
         <v>2033</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1" s="3">
         <v>2034</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>165900</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>164241</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>162598.59</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>160972.6041</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>159362.87805900001</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>157769.24927840999</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>156191.55678562599</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>154629.64121777</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>153083.344805592</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <v>151552.51135753599</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>120000</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>120000</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>120000</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>120000</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>120000</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>120000</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>120000</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>120000</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>120000</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>120000</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
@@ -852,40 +888,40 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>2000</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>2000</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>2000</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>2000</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>2000</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>2000</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>2000</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>2000</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>2000</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>2000</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
@@ -894,228 +930,228 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>9125</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>9125</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>9125</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>9125</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>9125</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>9125</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>9125</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>9125</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>9125</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>9125</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="4">
         <v>0</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <v>0</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>0</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="4">
         <v>0</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>0</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <v>0</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <v>0</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <v>0</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>0</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <f>C5*5</f>
         <v>45625</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <f t="shared" ref="D7:L7" si="0">D5*5</f>
         <v>45625</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <f t="shared" si="0"/>
         <v>45625</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <f t="shared" si="0"/>
         <v>45625</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <f t="shared" si="0"/>
         <v>45625</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <f t="shared" si="0"/>
         <v>45625</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <f t="shared" si="0"/>
         <v>45625</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <f t="shared" si="0"/>
         <v>45625</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <f t="shared" si="0"/>
         <v>45625</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <f t="shared" si="0"/>
         <v>45625</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <f>C2+C3+C7</f>
         <v>331525</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <f t="shared" ref="D8:L8" si="1">D2+D3+D7</f>
         <v>329866</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <f t="shared" si="1"/>
         <v>328223.58999999997</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <f t="shared" si="1"/>
         <v>326597.6041</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <f t="shared" si="1"/>
         <v>324987.87805900001</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="9">
         <f t="shared" si="1"/>
         <v>323394.24927840999</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="9">
         <f t="shared" si="1"/>
         <v>321816.55678562599</v>
       </c>
-      <c r="J8" s="10">
+      <c r="J8" s="9">
         <f t="shared" si="1"/>
         <v>320254.64121777</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="9">
         <f t="shared" si="1"/>
         <v>318708.34480559197</v>
       </c>
-      <c r="L8" s="10">
+      <c r="L8" s="9">
         <f t="shared" si="1"/>
         <v>317177.51135753596</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>63572.167670976502</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>63455.983513753097</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>63340.961198101897</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>63227.0891056072</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>63114.355734037497</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <v>63002.749696183499</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <v>62892.259718708003</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <v>62782.874641007198</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <v>62674.5834140835</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="9">
         <v>62567.375099429002</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
@@ -1124,50 +1160,50 @@
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <f>C9+C8</f>
         <v>395097.16767097649</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <f t="shared" ref="D10:L10" si="2">D9+D8</f>
         <v>393321.9835137531</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <f t="shared" si="2"/>
         <v>391564.55119810184</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <f t="shared" si="2"/>
         <v>389824.69320560718</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <f t="shared" si="2"/>
         <v>388102.23379303748</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <f t="shared" si="2"/>
         <v>386396.99897459347</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <f t="shared" si="2"/>
         <v>384708.81650433398</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <f t="shared" si="2"/>
         <v>383037.51585877722</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="9">
         <f t="shared" si="2"/>
         <v>381382.92821967549</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="9">
         <f t="shared" si="2"/>
         <v>379744.88645696494</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
@@ -1176,40 +1212,40 @@
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>35</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>34.299999999999997</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>33.613999999999997</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>32.941719999999997</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>32.2828856</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>31.637227888000002</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <v>31.004483330239999</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" s="4">
         <v>30.384393663635201</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>29.776705790362499</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <v>29.181171674555198</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
@@ -1218,46 +1254,46 @@
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="3">
         <v>8.1449999999999996</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="3">
         <v>8.1449999999999996</v>
       </c>
     </row>
@@ -1265,288 +1301,288 @@
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>1</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="6">
         <v>1</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="6">
         <v>1</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>1</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="6">
         <v>1</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="6">
         <v>1</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <v>1</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="6">
         <v>1</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="6">
         <v>1</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="6">
         <v>1</v>
       </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="12">
         <v>6000</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>6000</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="12">
         <v>6000</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="12">
         <v>6000</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="12">
         <v>6000</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="12">
         <v>6000</v>
       </c>
-      <c r="I14" s="13">
+      <c r="I14" s="12">
         <v>6000</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="12">
         <v>6000</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="12">
         <v>6000</v>
       </c>
-      <c r="L14" s="13">
+      <c r="L14" s="12">
         <v>6000</v>
       </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="12">
         <v>2.63</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <v>2.63</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>2.63</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="12">
         <v>2.63</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="12">
         <v>2.63</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="12">
         <v>2.63</v>
       </c>
-      <c r="I15" s="13">
+      <c r="I15" s="12">
         <v>2.63</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="12">
         <v>2.63</v>
       </c>
-      <c r="K15" s="13">
+      <c r="K15" s="12">
         <v>2.63</v>
       </c>
-      <c r="L15" s="13">
+      <c r="L15" s="12">
         <v>2.63</v>
       </c>
-      <c r="M15" s="13">
+      <c r="M15" s="12">
         <v>2.63</v>
       </c>
-      <c r="N15" s="13">
+      <c r="N15" s="12">
         <v>2.63</v>
       </c>
-      <c r="O15" s="13">
+      <c r="O15" s="12">
         <v>2.63</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="12">
         <v>2.63</v>
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>0.2</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <f t="shared" ref="D16:L16" si="3">C16</f>
         <v>0.2</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>5000</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <f t="shared" ref="D17:L17" si="4">C17</f>
         <v>5000</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>2000</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="5">
         <f t="shared" ref="D18:L18" si="5">C18</f>
         <v>2000</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1558,57 +1594,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3">
         <v>2021</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>2022</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>2023</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>2024</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="3">
         <v>2025</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="3">
         <v>2026</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="3">
         <v>2027</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="3">
         <v>2028</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="3">
         <v>2029</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="3">
         <v>2030</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1" s="3">
         <v>2031</v>
       </c>
-      <c r="N1" s="4">
+      <c r="N1" s="3">
         <v>2032</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1" s="3">
         <v>2033</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1" s="3">
         <v>2034</v>
       </c>
     </row>
@@ -1616,389 +1652,389 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>380</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>380</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>380</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>380</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>380</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>380</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>380</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>380</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>380</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <v>380</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>900</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>774.34350596224499</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>699.26192640775298</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>614.94506608887696</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>546.37677780696004</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>516.55385551465599</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>493.39921527331001</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>466.46797102233597</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>445.55844157477901</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>433.90523863231101</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>180</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>180</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>180</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>180</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>180</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>180</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>180</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>180</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>180</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>180</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>1000</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>979.80555078111502</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>961.58878479915597</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>945.02478641744699</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>929.86063962268202</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>915.89587471672496</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>902.96908503734801</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>890.94852620953895</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>879.72536210445298</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>869.20871515059002</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>2</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>2</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>2</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>2</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>2</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>2</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>2</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>2</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>2</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>2</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>9125</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>9125</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>9125</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>9125</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>9125</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>9125</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>9125</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>9125</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>9125</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>9125</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>5</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>5</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>5</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>5</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>5</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>5</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>5</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>5</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>5</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>5</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <f t="shared" ref="C9:L9" si="0">C2*C3+C4*C5*C6+C7*C8</f>
         <v>747625</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <f t="shared" si="0"/>
         <v>692605.53054685448</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <f t="shared" si="0"/>
         <v>657516.4945626423</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <f t="shared" si="0"/>
         <v>619513.04822405416</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <f t="shared" si="0"/>
         <v>587998.00583081041</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="9">
         <f t="shared" si="0"/>
         <v>571637.97999359027</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="9">
         <f t="shared" si="0"/>
         <v>558185.5724173031</v>
       </c>
-      <c r="J9" s="10">
+      <c r="J9" s="9">
         <f t="shared" si="0"/>
         <v>543624.29842392169</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <f t="shared" si="0"/>
         <v>531638.3381560191</v>
       </c>
-      <c r="L9" s="10">
+      <c r="L9" s="9">
         <f t="shared" si="0"/>
         <v>523424.12813449057</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>62658.1558433803</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>58804.996898658203</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>56347.618915771898</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>53686.137068614102</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>51479.055308324998</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="9">
         <v>50333.319434876503</v>
       </c>
-      <c r="I10" s="10">
+      <c r="I10" s="9">
         <v>49391.211757434001</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="9">
         <v>48371.447232406601</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="9">
         <v>47532.038737988398</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="9">
         <v>46956.775887712603</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
@@ -2007,101 +2043,101 @@
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="9">
         <f t="shared" ref="C11:L11" si="1">C10+C9</f>
         <v>810283.15584338026</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <f t="shared" si="1"/>
         <v>751410.52744551271</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <f t="shared" si="1"/>
         <v>713864.11347841425</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <f t="shared" si="1"/>
         <v>673199.18529266829</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <f t="shared" si="1"/>
         <v>639477.06113913539</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="9">
         <f t="shared" si="1"/>
         <v>621971.29942846682</v>
       </c>
-      <c r="I11" s="10">
+      <c r="I11" s="9">
         <f t="shared" si="1"/>
         <v>607576.78417473705</v>
       </c>
-      <c r="J11" s="10">
+      <c r="J11" s="9">
         <f t="shared" si="1"/>
         <v>591995.74565632828</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <f t="shared" si="1"/>
         <v>579170.37689400755</v>
       </c>
-      <c r="L11" s="10">
+      <c r="L11" s="9">
         <f t="shared" si="1"/>
         <v>570380.90402220318</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>180</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>176.4</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>172.87200000000001</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>169.41455999999999</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>166.0262688</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>162.70574342399999</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>159.45162855551999</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>156.26259598441001</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>153.13734406472099</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <v>150.07459718342699</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <f>L12</f>
         <v>150.07459718342699</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <f t="shared" ref="N12:P12" si="2">M12</f>
         <v>150.07459718342699</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="4">
         <f t="shared" si="2"/>
         <v>150.07459718342699</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="4">
         <f t="shared" si="2"/>
         <v>150.07459718342699</v>
       </c>
@@ -2110,441 +2146,441 @@
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>0.9</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>0.9</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>0.9</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="3">
         <v>0.9</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>0.9</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="3">
         <v>0.9</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>0.9</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="3">
         <v>0.9</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>0.9</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="3">
         <v>0.9</v>
       </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>380</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>380</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>380</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="3">
         <v>380</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>380</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="3">
         <v>380</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="3">
         <v>380</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="3">
         <v>380</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>380</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="3">
         <v>380</v>
       </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>6.2111801242236</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>6.1490683229813703</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>6.0881987577639798</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>6.02853416149068</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>5.9700387577639704</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>5.9126781863354001</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>5.85641943304348</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>5.80123076391056</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="4">
         <v>5.7470816631107597</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <v>5.69394277454363</v>
       </c>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>2360.24844720497</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>2336.64596273292</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>2313.5155279503101</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>2290.8429813664602</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>2268.6147279503102</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>2246.8177108074501</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>2225.4393845565201</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>2204.4676902860101</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <v>2183.8910319820902</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <v>2163.6982543265799</v>
       </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="6">
         <v>2</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="6">
         <v>2</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="6">
         <v>2</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>2</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>2</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="6">
         <v>2</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <v>2</v>
       </c>
-      <c r="J17" s="7">
+      <c r="J17" s="6">
         <v>2</v>
       </c>
-      <c r="K17" s="7">
+      <c r="K17" s="6">
         <v>2</v>
       </c>
-      <c r="L17" s="7">
+      <c r="L17" s="6">
         <v>2</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="12">
         <v>250</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <v>250</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="12">
         <v>250</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="12">
         <v>250</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="12">
         <v>250</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="12">
         <v>250</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="12">
         <v>250</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="12">
         <v>250</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="12">
         <v>250</v>
       </c>
-      <c r="L18" s="13">
+      <c r="L18" s="12">
         <v>250</v>
       </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="14">
+      <c r="C19" s="13">
         <v>0.56499999999999995</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <v>0.57030000000000003</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="12">
         <v>0.57030000000000003</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="12">
         <v>0.57030000000000003</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="12">
         <v>0.57030000000000003</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="12">
         <v>0.57030000000000003</v>
       </c>
-      <c r="I19" s="13">
+      <c r="I19" s="12">
         <v>0.57030000000000003</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="12">
         <v>0.57030000000000003</v>
       </c>
-      <c r="K19" s="13">
+      <c r="K19" s="12">
         <v>0.57030000000000003</v>
       </c>
-      <c r="L19" s="13">
+      <c r="L19" s="12">
         <v>0.57030000000000003</v>
       </c>
-      <c r="M19" s="13">
+      <c r="M19" s="12">
         <v>0.57030000000000003</v>
       </c>
-      <c r="N19" s="13">
+      <c r="N19" s="12">
         <v>0.57030000000000003</v>
       </c>
-      <c r="O19" s="13">
+      <c r="O19" s="12">
         <v>0.57030000000000003</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="12">
         <v>0.57030000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>0.2</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="5">
         <f t="shared" ref="D20:L20" si="3">C20</f>
         <v>0.2</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>5000</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <f t="shared" ref="D21:L21" si="4">C21</f>
         <v>5000</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>2000</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <f t="shared" ref="D22:L22" si="5">C22</f>
         <v>2000</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
@@ -2566,620 +2602,620 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3">
         <v>2021</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>2022</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>2023</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>2024</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="3">
         <v>2025</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="3">
         <v>2026</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="3">
         <v>2027</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="3">
         <v>2028</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="3">
         <v>2029</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="3">
         <v>2030</v>
       </c>
-      <c r="M1" s="4">
+      <c r="M1" s="3">
         <v>2031</v>
       </c>
-      <c r="N1" s="4">
+      <c r="N1" s="3">
         <v>2032</v>
       </c>
-      <c r="O1" s="4">
+      <c r="O1" s="3">
         <v>2033</v>
       </c>
-      <c r="P1" s="4">
+      <c r="P1" s="3">
         <v>2034</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>120</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>120</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>120</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="7">
         <v>120</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="7">
         <v>120</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>120</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="7">
         <v>120</v>
       </c>
-      <c r="J2" s="8">
+      <c r="J2" s="7">
         <v>120</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="7">
         <v>120</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="7">
         <v>120</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>4500</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="7">
         <v>2391.98927250304</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="7">
         <v>1961.4312034524901</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <v>1840.04031182783</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="7">
         <v>1746.45506306998</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <v>1014.53934665188</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="7">
         <v>780.43547988886803</v>
       </c>
-      <c r="J3" s="8">
+      <c r="J3" s="7">
         <v>682.17625668872699</v>
       </c>
-      <c r="K3" s="8">
+      <c r="K3" s="7">
         <v>659.55560949800599</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="7">
         <v>639.95709350887205</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>100</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>98</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>96</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>94</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>92</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>90</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>88</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>86</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>84</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>82</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>900</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>774.34350596224499</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>699.26192640775298</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>614.94506608887696</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>546.37677780696004</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>516.55385551465599</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>493.39921527331001</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>466.46797102233597</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>445.55844157477901</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>433.90523863231101</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>180</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <v>180</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <v>180</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <v>180</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>180</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>180</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="7">
         <v>180</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="7">
         <v>180</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="7">
         <v>180</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="7">
         <v>180</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>1000</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <v>979.80555078111502</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <v>961.58878479915597</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <v>945.02478641744699</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>929.86063962268202</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <v>915.89587471672496</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="7">
         <v>902.96908503734801</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="7">
         <v>890.94852620953895</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="7">
         <v>879.72536210445298</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="7">
         <v>869.20871515059002</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>2</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>2</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>2</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>2</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>2</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>2</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>2</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>2</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>2</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>40</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>40</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>40</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>40</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>40</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>40</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>40</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>40</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>40</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>40</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>4900</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="7">
         <v>2920.35718593309</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="7">
         <v>2482.3036080431302</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>2355.7698962539498</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>2257.1873974662799</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>1446.7371875369599</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>1167.0421449154701</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <v>1045.2676179954501</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <v>1016.79641698969</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <v>991.98582317815305</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>9125</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>9125</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>9125</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>9125</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>9125</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>9125</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>9125</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>9125</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>9125</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>9125</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>5</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>5</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>5</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>5</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>5</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>5</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="7">
         <v>5</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <v>5</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="7">
         <v>5</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="7">
         <v>5</v>
       </c>
-      <c r="M12" s="5">
+      <c r="M12" s="4">
         <f>L12</f>
         <v>5</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="4">
         <f t="shared" ref="N12:P12" si="0">M12</f>
         <v>5</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <f>C2*C3+C4*C5+C6*C7*C8+C9*C10+C11*C12</f>
         <v>1231625</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <f t="shared" ref="D13:L13" si="1">D2*D3+D4*D5+D6*D7*D8+D9*D10+D11*D12</f>
         <v>878093.66200318991</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <f t="shared" si="1"/>
         <v>793589.99619886442</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <f t="shared" si="1"/>
         <v>758674.39259213302</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <f t="shared" si="1"/>
         <v>730503.59728945466</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="9">
         <f t="shared" si="1"/>
         <v>601451.57099404407</v>
       </c>
-      <c r="I13" s="10">
+      <c r="I13" s="9">
         <f t="shared" si="1"/>
         <v>554446.94494077959</v>
       </c>
-      <c r="J13" s="10">
+      <c r="J13" s="9">
         <f t="shared" si="1"/>
         <v>530154.57046582014</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="9">
         <f t="shared" si="1"/>
         <v>519571.5692692328</v>
       </c>
-      <c r="L13" s="10">
+      <c r="L13" s="9">
         <f t="shared" si="1"/>
         <v>510594.65117025265</v>
       </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="9">
         <v>83170.717417065098</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>63818.928139816198</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>59097.356922879699</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>56997.722995768803</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>55294.103433653698</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="9">
         <v>48469.809640264401</v>
       </c>
-      <c r="I14" s="10">
+      <c r="I14" s="9">
         <v>45941.8749301102</v>
       </c>
-      <c r="J14" s="10">
+      <c r="J14" s="9">
         <v>44573.215198433703</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="9">
         <v>43909.8222643443</v>
       </c>
-      <c r="L14" s="10">
+      <c r="L14" s="9">
         <v>43348.909458775997</v>
       </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1" t="s">
@@ -3188,212 +3224,212 @@
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="9">
         <f t="shared" ref="C15:L15" si="2">C14+C13</f>
         <v>1314795.7174170651</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <f t="shared" si="2"/>
         <v>941912.59014300606</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="9">
         <f t="shared" si="2"/>
         <v>852687.35312174412</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <f t="shared" si="2"/>
         <v>815672.11558790179</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <f t="shared" si="2"/>
         <v>785797.70072310837</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="9">
         <f t="shared" si="2"/>
         <v>649921.38063430844</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I15" s="9">
         <f t="shared" si="2"/>
         <v>600388.81987088977</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <f t="shared" si="2"/>
         <v>574727.78566425387</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="9">
         <f t="shared" si="2"/>
         <v>563481.39153357712</v>
       </c>
-      <c r="L15" s="10">
+      <c r="L15" s="9">
         <f t="shared" si="2"/>
         <v>553943.56062902859</v>
       </c>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>11</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>10.78</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>10.564399999999999</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>10.353111999999999</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>10.14604976</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>9.9431287648000009</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>9.7442661895039997</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>9.5493808657139194</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="4">
         <v>9.3583932483996399</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <v>9.1712253834316506</v>
       </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>50</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>49</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>48</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>47</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>46</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>45</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>44</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>43</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4">
         <v>42</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <v>41</v>
       </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="5"/>
+      <c r="P17" s="5"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>100</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <v>98</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <v>96</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <v>94</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>92</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>90</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <v>88</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>86</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="4">
         <v>84</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <v>82</v>
       </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="5"/>
+      <c r="P18" s="5"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>6.2111801242236</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>6.1490683229813703</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <v>6.0881987577639798</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>6.02853416149068</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>5.9700387577639704</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>5.9126781863354001</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <v>5.85641943304348</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" s="4">
         <v>5.80123076391056</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="4">
         <v>5.7470816631107597</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="4">
         <v>5.69394277454363</v>
       </c>
     </row>
@@ -3401,37 +3437,37 @@
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>621.11801242236004</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>602.60869565217399</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>584.46708074534195</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>566.682211180124</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>549.24356571428495</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>532.14103677018602</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <v>515.36491010782595</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>498.90584569630801</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="4">
         <v>482.75485970130399</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="4">
         <v>466.90330751257801</v>
       </c>
     </row>
@@ -3439,125 +3475,125 @@
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J21" s="7">
+      <c r="J21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K21" s="7">
+      <c r="K21" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="6">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="12">
         <v>500</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="12">
         <v>500</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E22" s="12">
         <v>500</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="12">
         <v>500</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="12">
         <v>500</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="12">
         <v>500</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="12">
         <v>500</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="12">
         <v>500</v>
       </c>
-      <c r="K22" s="13">
+      <c r="K22" s="12">
         <v>500</v>
       </c>
-      <c r="L22" s="13">
+      <c r="L22" s="12">
         <v>500</v>
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="L23" s="14">
+      <c r="L23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="M23" s="14">
+      <c r="M23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="N23" s="14">
+      <c r="N23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="O23" s="14">
+      <c r="O23" s="13">
         <v>4.9000000000000004</v>
       </c>
-      <c r="P23" s="14">
+      <c r="P23" s="13">
         <v>4.9000000000000004</v>
       </c>
     </row>
@@ -3568,42 +3604,42 @@
       <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>0.2</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="5">
         <f t="shared" ref="D24:L24" si="3">C24</f>
         <v>0.2</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="5">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
@@ -3615,42 +3651,42 @@
       <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>5000</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="5">
         <f t="shared" ref="D25:L25" si="4">C25</f>
         <v>5000</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="5">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
@@ -3662,42 +3698,42 @@
       <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>2000</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="5">
         <f t="shared" ref="D26:L26" si="5">C26</f>
         <v>2000</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="5">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
@@ -3710,47 +3746,47 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="A12" sqref="A12:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4">
+      <c r="C1" s="3">
         <v>2021</v>
       </c>
-      <c r="D1" s="4">
+      <c r="D1" s="3">
         <v>2022</v>
       </c>
-      <c r="E1" s="4">
+      <c r="E1" s="3">
         <v>2023</v>
       </c>
-      <c r="F1" s="4">
+      <c r="F1" s="3">
         <v>2024</v>
       </c>
-      <c r="G1" s="4">
+      <c r="G1" s="3">
         <v>2025</v>
       </c>
-      <c r="H1" s="4">
+      <c r="H1" s="3">
         <v>2026</v>
       </c>
-      <c r="I1" s="4">
+      <c r="I1" s="3">
         <v>2027</v>
       </c>
-      <c r="J1" s="4">
+      <c r="J1" s="3">
         <v>2028</v>
       </c>
-      <c r="K1" s="4">
+      <c r="K1" s="3">
         <v>2029</v>
       </c>
-      <c r="L1" s="4">
+      <c r="L1" s="3">
         <v>2030</v>
       </c>
     </row>
@@ -3761,42 +3797,42 @@
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>0.06</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <f t="shared" ref="D2:L2" si="0">C2</f>
         <v>0.06</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="5">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
@@ -3808,44 +3844,44 @@
       <c r="B3" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="5">
-        <v>5</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="C3" s="4">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5">
         <f t="shared" ref="D3:L3" si="1">C3</f>
-        <v>5</v>
-      </c>
-      <c r="E3" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="F3" s="6">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G3" s="6">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H3" s="6">
+        <v>3</v>
+      </c>
+      <c r="H3" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="I3" s="6">
+        <v>3</v>
+      </c>
+      <c r="I3" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="J3" s="6">
+        <v>3</v>
+      </c>
+      <c r="J3" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="K3" s="6">
+        <v>3</v>
+      </c>
+      <c r="K3" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="L3" s="6">
+        <v>3</v>
+      </c>
+      <c r="L3" s="5">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -3855,42 +3891,42 @@
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>0.8</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <f t="shared" ref="D4:L4" si="2">C4</f>
         <v>0.8</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
@@ -3902,43 +3938,43 @@
       <c r="B5" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <f>C6*8</f>
         <v>8</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <f t="shared" ref="D5:L5" si="3">C5</f>
         <v>8</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="5">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
@@ -3950,42 +3986,42 @@
       <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <f t="shared" ref="D6:L6" si="4">C6</f>
         <v>1</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -3997,42 +4033,42 @@
       <c r="B7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>10000</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <f t="shared" ref="D7:L7" si="5">C7</f>
         <v>10000</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
@@ -4044,42 +4080,42 @@
       <c r="B8" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>20</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <f t="shared" ref="D8:L8" si="6">C8</f>
         <v>20</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
@@ -4091,42 +4127,42 @@
       <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <f t="shared" ref="D9:L9" si="7">C9</f>
         <v>0</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -4138,42 +4174,42 @@
       <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>0.12</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <f t="shared" ref="D10:L10" si="8">C10</f>
         <v>0.12</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
@@ -4185,35 +4221,111 @@
       <c r="B11" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="6">
         <v>49</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="6">
         <v>49</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="6">
         <v>49</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>49</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="6">
         <v>49</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="6">
         <v>49</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <v>49</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="6">
         <v>49</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="6">
         <v>49</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="6">
+        <v>50</v>
+      </c>
+      <c r="D12" s="6">
+        <v>50</v>
+      </c>
+      <c r="E12" s="6">
+        <v>50</v>
+      </c>
+      <c r="F12" s="6">
+        <v>50</v>
+      </c>
+      <c r="G12" s="6">
+        <v>50</v>
+      </c>
+      <c r="H12" s="6">
+        <v>50</v>
+      </c>
+      <c r="I12" s="6">
+        <v>50</v>
+      </c>
+      <c r="J12" s="6">
+        <v>50</v>
+      </c>
+      <c r="K12" s="6">
+        <v>50</v>
+      </c>
+      <c r="L12" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="6">
+        <v>60</v>
+      </c>
+      <c r="D13" s="6">
+        <v>60</v>
+      </c>
+      <c r="E13" s="6">
+        <v>60</v>
+      </c>
+      <c r="F13" s="6">
+        <v>60</v>
+      </c>
+      <c r="G13" s="6">
+        <v>60</v>
+      </c>
+      <c r="H13" s="6">
+        <v>60</v>
+      </c>
+      <c r="I13" s="6">
+        <v>60</v>
+      </c>
+      <c r="J13" s="6">
+        <v>60</v>
+      </c>
+      <c r="K13" s="6">
+        <v>60</v>
+      </c>
+      <c r="L13" s="6">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4226,8 +4338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4254,6 +4366,9 @@
       <c r="F1" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="G1" s="15" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
@@ -4272,10 +4387,12 @@
       <c r="E2">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="3"/>
+      <c r="F2" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/data/港口25吨牵引车.xlsx
+++ b/data/港口25吨牵引车.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1954DC-E027-7344-9334-9127CAC50B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881A5587-D0D9-554E-BCDB-36E4F52B8D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="3300" windowWidth="20920" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20920" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="84">
   <si>
     <t>单位</t>
   </si>
@@ -153,27 +153,30 @@
     <t>元/kwh</t>
   </si>
   <si>
+    <t>电池容量</t>
+  </si>
+  <si>
+    <t>动力电池能量密度</t>
+  </si>
+  <si>
+    <t>kg/kwh</t>
+  </si>
+  <si>
+    <t>kWh/小时</t>
+  </si>
+  <si>
+    <t>kgCO2/kWh</t>
+  </si>
+  <si>
+    <t>燃料电池系统功率</t>
+  </si>
+  <si>
+    <t>燃料电池系统单价</t>
+  </si>
+  <si>
     <t>动力电池容量</t>
   </si>
   <si>
-    <t>动力电池能量密度</t>
-  </si>
-  <si>
-    <t>kg/kwh</t>
-  </si>
-  <si>
-    <t>kWh/小时</t>
-  </si>
-  <si>
-    <t>kgCO2/kWh</t>
-  </si>
-  <si>
-    <t>燃料电池系统功率</t>
-  </si>
-  <si>
-    <t>燃料电池系统单价</t>
-  </si>
-  <si>
     <t>氢瓶单位成本</t>
   </si>
   <si>
@@ -237,6 +240,18 @@
     <t>吨</t>
   </si>
   <si>
+    <t>平均负载率</t>
+  </si>
+  <si>
+    <t>%,考虑每趟满载的可能性</t>
+  </si>
+  <si>
+    <t>行驶时间占比</t>
+  </si>
+  <si>
+    <t>%,考虑接不到单或高频装卸货时间</t>
+  </si>
+  <si>
     <t>路线</t>
   </si>
   <si>
@@ -255,37 +270,25 @@
     <t>是否货运</t>
   </si>
   <si>
+    <t>备注</t>
+  </si>
+  <si>
     <t>港口</t>
   </si>
   <si>
-    <t>电池容量</t>
-  </si>
-  <si>
-    <t>平均负载率</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>%,考虑每趟满载的可能性</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>行驶时间占比</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>%,考虑接不到单或高频装卸货时间</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>否</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>港口是集装箱，按整车算价，不受电池质量影响</t>
+  </si>
+  <si>
+    <t>是否固定趟数</t>
+  </si>
+  <si>
+    <t>每日固定趟数</t>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -294,7 +297,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -354,7 +357,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -369,7 +372,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -412,6 +415,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -425,46 +441,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -744,7 +760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P18"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C8" sqref="C8:L8"/>
     </sheetView>
   </sheetViews>
@@ -754,132 +770,132 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="4">
         <v>2021</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="4">
         <v>2022</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="4">
         <v>2023</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="4">
         <v>2024</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="4">
         <v>2025</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="4">
         <v>2026</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="4">
         <v>2027</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="4">
         <v>2028</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="4">
         <v>2029</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="4">
         <v>2030</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="4">
         <v>2031</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="4">
         <v>2032</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="4">
         <v>2033</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="4">
         <v>2034</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>165900</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>164241</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>162598.59</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <v>160972.6041</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="8">
         <v>159362.87805900001</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="8">
         <v>157769.24927840999</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="8">
         <v>156191.55678562599</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="8">
         <v>154629.64121777</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="8">
         <v>153083.344805592</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="8">
         <v>151552.51135753599</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>120000</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>120000</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>120000</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>120000</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="8">
         <v>120000</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <v>120000</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="8">
         <v>120000</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="8">
         <v>120000</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="8">
         <v>120000</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="8">
         <v>120000</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
@@ -888,40 +904,40 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>2000</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>2000</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>2000</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>2000</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="8">
         <v>2000</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="8">
         <v>2000</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="8">
         <v>2000</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="8">
         <v>2000</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="8">
         <v>2000</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="8">
         <v>2000</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
@@ -930,228 +946,228 @@
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <v>9125</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>9125</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="8">
         <v>9125</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="8">
         <v>9125</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="8">
         <v>9125</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="8">
         <v>9125</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="8">
         <v>9125</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="8">
         <v>9125</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="8">
         <v>9125</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="8">
         <v>9125</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>0</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <v>0</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="5">
         <v>0</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>0</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="5">
         <v>0</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="5">
         <v>0</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="5">
         <v>0</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="5">
         <v>0</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="5">
         <v>0</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="5">
         <v>0</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <f>C5*5</f>
         <v>45625</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="8">
         <f t="shared" ref="D7:L7" si="0">D5*5</f>
         <v>45625</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <f t="shared" si="0"/>
         <v>45625</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="8">
         <f t="shared" si="0"/>
         <v>45625</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="8">
         <f t="shared" si="0"/>
         <v>45625</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="8">
         <f t="shared" si="0"/>
         <v>45625</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="8">
         <f t="shared" si="0"/>
         <v>45625</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="8">
         <f t="shared" si="0"/>
         <v>45625</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="8">
         <f t="shared" si="0"/>
         <v>45625</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="8">
         <f t="shared" si="0"/>
         <v>45625</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="10">
         <f>C2+C3+C7</f>
         <v>331525</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="10">
         <f t="shared" ref="D8:L8" si="1">D2+D3+D7</f>
         <v>329866</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="10">
         <f t="shared" si="1"/>
         <v>328223.58999999997</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="10">
         <f t="shared" si="1"/>
         <v>326597.6041</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="10">
         <f t="shared" si="1"/>
         <v>324987.87805900001</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="10">
         <f t="shared" si="1"/>
         <v>323394.24927840999</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="10">
         <f t="shared" si="1"/>
         <v>321816.55678562599</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="10">
         <f t="shared" si="1"/>
         <v>320254.64121777</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="10">
         <f t="shared" si="1"/>
         <v>318708.34480559197</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="10">
         <f t="shared" si="1"/>
         <v>317177.51135753596</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="10">
         <v>63572.167670976502</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="10">
         <v>63455.983513753097</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="10">
         <v>63340.961198101897</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="10">
         <v>63227.0891056072</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="10">
         <v>63114.355734037497</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="10">
         <v>63002.749696183499</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="10">
         <v>62892.259718708003</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="10">
         <v>62782.874641007198</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="10">
         <v>62674.5834140835</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="10">
         <v>62567.375099429002</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="1" t="s">
@@ -1160,50 +1176,50 @@
       <c r="B10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="10">
         <f>C9+C8</f>
         <v>395097.16767097649</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="10">
         <f t="shared" ref="D10:L10" si="2">D9+D8</f>
         <v>393321.9835137531</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="10">
         <f t="shared" si="2"/>
         <v>391564.55119810184</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="10">
         <f t="shared" si="2"/>
         <v>389824.69320560718</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="10">
         <f t="shared" si="2"/>
         <v>388102.23379303748</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="10">
         <f t="shared" si="2"/>
         <v>386396.99897459347</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="10">
         <f t="shared" si="2"/>
         <v>384708.81650433398</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="10">
         <f t="shared" si="2"/>
         <v>383037.51585877722</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="10">
         <f t="shared" si="2"/>
         <v>381382.92821967549</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="10">
         <f t="shared" si="2"/>
         <v>379744.88645696494</v>
       </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
@@ -1212,40 +1228,40 @@
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>35</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>34.299999999999997</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>33.613999999999997</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>32.941719999999997</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="5">
         <v>32.2828856</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="5">
         <v>31.637227888000002</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="5">
         <v>31.004483330239999</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="5">
         <v>30.384393663635201</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="5">
         <v>29.776705790362499</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="5">
         <v>29.181171674555198</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
@@ -1254,46 +1270,46 @@
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="4">
         <v>8.1449999999999996</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="4">
         <v>8.1449999999999996</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="4">
         <v>8.1449999999999996</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4">
         <v>8.1449999999999996</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="4">
         <v>8.1449999999999996</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="4">
         <v>8.1449999999999996</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="4">
         <v>8.1449999999999996</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="4">
         <v>8.1449999999999996</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="4">
         <v>8.1449999999999996</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="4">
         <v>8.1449999999999996</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="4">
         <v>8.1449999999999996</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="4">
         <v>8.1449999999999996</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="4">
         <v>8.1449999999999996</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="4">
         <v>8.1449999999999996</v>
       </c>
     </row>
@@ -1301,49 +1317,49 @@
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="7">
         <v>1</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="7">
         <v>1</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="7">
         <v>1</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="7">
         <v>1</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="7">
         <v>1</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="7">
         <v>1</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="7">
         <v>1</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="7">
         <v>1</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="7">
         <v>1</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="7">
         <v>1</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="12">
@@ -1382,10 +1398,10 @@
       <c r="P14" s="12"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="12">
@@ -1432,157 +1448,157 @@
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="5">
         <v>0.2</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="6">
         <f t="shared" ref="D16:L16" si="3">C16</f>
         <v>0.2</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="5">
         <v>5000</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="6">
         <f t="shared" ref="D17:L17" si="4">C17</f>
         <v>5000</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="5">
         <v>2000</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="6">
         <f t="shared" ref="D18:L18" si="5">C18</f>
         <v>2000</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1594,57 +1610,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="4">
         <v>2021</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="4">
         <v>2022</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="4">
         <v>2023</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="4">
         <v>2024</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="4">
         <v>2025</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="4">
         <v>2026</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="4">
         <v>2027</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="4">
         <v>2028</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="4">
         <v>2029</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="4">
         <v>2030</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="4">
         <v>2031</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="4">
         <v>2032</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="4">
         <v>2033</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="4">
         <v>2034</v>
       </c>
     </row>
@@ -1652,389 +1668,389 @@
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>380</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>380</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>380</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <v>380</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="8">
         <v>380</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="8">
         <v>380</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="8">
         <v>380</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="8">
         <v>380</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="8">
         <v>380</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="8">
         <v>380</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>900</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>774.34350596224499</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>699.26192640775298</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>614.94506608887696</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="8">
         <v>546.37677780696004</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <v>516.55385551465599</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="8">
         <v>493.39921527331001</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="8">
         <v>466.46797102233597</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="8">
         <v>445.55844157477901</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="8">
         <v>433.90523863231101</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>180</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>180</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>180</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>180</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="8">
         <v>180</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="8">
         <v>180</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="8">
         <v>180</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="8">
         <v>180</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="8">
         <v>180</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="8">
         <v>180</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <v>1000</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>979.80555078111502</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="8">
         <v>961.58878479915597</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="8">
         <v>945.02478641744699</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="8">
         <v>929.86063962268202</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="8">
         <v>915.89587471672496</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="8">
         <v>902.96908503734801</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="8">
         <v>890.94852620953895</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="8">
         <v>879.72536210445298</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="8">
         <v>869.20871515059002</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="8">
         <v>2</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <v>2</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="8">
         <v>2</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="8">
         <v>2</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="8">
         <v>2</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="8">
         <v>2</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="8">
         <v>2</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="8">
         <v>2</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="8">
         <v>2</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>9125</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="8">
         <v>9125</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <v>9125</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="8">
         <v>9125</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="8">
         <v>9125</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="8">
         <v>9125</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="8">
         <v>9125</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="8">
         <v>9125</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="8">
         <v>9125</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="8">
         <v>9125</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>5</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="8">
         <v>5</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="8">
         <v>5</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="8">
         <v>5</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="8">
         <v>5</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="8">
         <v>5</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="8">
         <v>5</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="8">
         <v>5</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="8">
         <v>5</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="8">
         <v>5</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="10">
         <f t="shared" ref="C9:L9" si="0">C2*C3+C4*C5*C6+C7*C8</f>
         <v>747625</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="10">
         <f t="shared" si="0"/>
         <v>692605.53054685448</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="10">
         <f t="shared" si="0"/>
         <v>657516.4945626423</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="10">
         <f t="shared" si="0"/>
         <v>619513.04822405416</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="10">
         <f t="shared" si="0"/>
         <v>587998.00583081041</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="10">
         <f t="shared" si="0"/>
         <v>571637.97999359027</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="10">
         <f t="shared" si="0"/>
         <v>558185.5724173031</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="10">
         <f t="shared" si="0"/>
         <v>543624.29842392169</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="10">
         <f t="shared" si="0"/>
         <v>531638.3381560191</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="10">
         <f t="shared" si="0"/>
         <v>523424.12813449057</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="10">
         <v>62658.1558433803</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="10">
         <v>58804.996898658203</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="10">
         <v>56347.618915771898</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="10">
         <v>53686.137068614102</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="10">
         <v>51479.055308324998</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="10">
         <v>50333.319434876503</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="10">
         <v>49391.211757434001</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="10">
         <v>48371.447232406601</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="10">
         <v>47532.038737988398</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="10">
         <v>46956.775887712603</v>
       </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
@@ -2043,101 +2059,101 @@
       <c r="B11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="10">
         <f t="shared" ref="C11:L11" si="1">C10+C9</f>
         <v>810283.15584338026</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="10">
         <f t="shared" si="1"/>
         <v>751410.52744551271</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="10">
         <f t="shared" si="1"/>
         <v>713864.11347841425</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="10">
         <f t="shared" si="1"/>
         <v>673199.18529266829</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="10">
         <f t="shared" si="1"/>
         <v>639477.06113913539</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="10">
         <f t="shared" si="1"/>
         <v>621971.29942846682</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="10">
         <f t="shared" si="1"/>
         <v>607576.78417473705</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="10">
         <f t="shared" si="1"/>
         <v>591995.74565632828</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="10">
         <f t="shared" si="1"/>
         <v>579170.37689400755</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="10">
         <f t="shared" si="1"/>
         <v>570380.90402220318</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>180</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>176.4</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="5">
         <v>172.87200000000001</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <v>169.41455999999999</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="5">
         <v>166.0262688</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="5">
         <v>162.70574342399999</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="5">
         <v>159.45162855551999</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="5">
         <v>156.26259598441001</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="5">
         <v>153.13734406472099</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="5">
         <v>150.07459718342699</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="5">
         <f>L12</f>
         <v>150.07459718342699</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="5">
         <f t="shared" ref="N12:P12" si="2">M12</f>
         <v>150.07459718342699</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="5">
         <f t="shared" si="2"/>
         <v>150.07459718342699</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="5">
         <f t="shared" si="2"/>
         <v>150.07459718342699</v>
       </c>
@@ -2146,79 +2162,91 @@
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="4">
         <v>0.9</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="4">
         <v>0.9</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="4">
         <v>0.9</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <v>0.9</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="4">
         <v>0.9</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="4">
         <v>0.9</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="4">
         <v>0.9</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="4">
         <v>0.9</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="4">
         <v>0.9</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="4">
         <v>0.9</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
+      <c r="M13" s="7">
+        <f>L13</f>
+        <v>0.9</v>
+      </c>
+      <c r="N13" s="7">
+        <f>M13</f>
+        <v>0.9</v>
+      </c>
+      <c r="O13" s="7">
+        <f>N13</f>
+        <v>0.9</v>
+      </c>
+      <c r="P13" s="7">
+        <f>O13</f>
+        <v>0.9</v>
+      </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="4">
         <v>380</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="4">
         <v>380</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="4">
         <v>380</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="4">
         <v>380</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="4">
         <v>380</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="4">
         <v>380</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="4">
         <v>380</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="4">
         <v>380</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="4">
         <v>380</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="4">
         <v>380</v>
       </c>
       <c r="M14" s="12"/>
@@ -2227,40 +2255,40 @@
       <c r="P14" s="12"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <v>6.2111801242236</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="5">
         <v>6.1490683229813703</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="5">
         <v>6.0881987577639798</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
         <v>6.02853416149068</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="5">
         <v>5.9700387577639704</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="5">
         <v>5.9126781863354001</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="5">
         <v>5.85641943304348</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="5">
         <v>5.80123076391056</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="5">
         <v>5.7470816631107597</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="5">
         <v>5.69394277454363</v>
       </c>
       <c r="M15" s="12"/>
@@ -2272,91 +2300,91 @@
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="5">
         <v>2360.24844720497</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
         <v>2336.64596273292</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="5">
         <v>2313.5155279503101</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="5">
         <v>2290.8429813664602</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="5">
         <v>2268.6147279503102</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="5">
         <v>2246.8177108074501</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="5">
         <v>2225.4393845565201</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="5">
         <v>2204.4676902860101</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="5">
         <v>2183.8910319820902</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="5">
         <v>2163.6982543265799</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="7">
         <v>2</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="7">
         <v>2</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="7">
         <v>2</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="7">
         <v>2</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="7">
         <v>2</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="7">
         <v>2</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="7">
         <v>2</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="7">
         <v>2</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="7">
         <v>2</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="7">
         <v>2</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="12">
@@ -2389,16 +2417,16 @@
       <c r="L18" s="12">
         <v>250</v>
       </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="13">
@@ -2445,142 +2473,142 @@
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="5">
         <v>0.2</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="6">
         <f t="shared" ref="D20:L20" si="3">C20</f>
         <v>0.2</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="5">
         <v>5000</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="6">
         <f t="shared" ref="D21:L21" si="4">C21</f>
         <v>5000</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="5">
         <v>2000</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="6">
         <f t="shared" ref="D22:L22" si="5">C22</f>
         <v>2000</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
@@ -2595,621 +2623,621 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17:P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:16">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="4">
         <v>2021</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="4">
         <v>2022</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="4">
         <v>2023</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="4">
         <v>2024</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="4">
         <v>2025</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="4">
         <v>2026</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="4">
         <v>2027</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="4">
         <v>2028</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="4">
         <v>2029</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="4">
         <v>2030</v>
       </c>
-      <c r="M1" s="3">
+      <c r="M1" s="4">
         <v>2031</v>
       </c>
-      <c r="N1" s="3">
+      <c r="N1" s="4">
         <v>2032</v>
       </c>
-      <c r="O1" s="3">
+      <c r="O1" s="4">
         <v>2033</v>
       </c>
-      <c r="P1" s="3">
+      <c r="P1" s="4">
         <v>2034</v>
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>120</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>120</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>120</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <v>120</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="8">
         <v>120</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="8">
         <v>120</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="8">
         <v>120</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="8">
         <v>120</v>
       </c>
-      <c r="K2" s="7">
+      <c r="K2" s="8">
         <v>120</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="8">
         <v>120</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="8">
         <v>4500</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="8">
         <v>2391.98927250304</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="8">
         <v>1961.4312034524901</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="8">
         <v>1840.04031182783</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="8">
         <v>1746.45506306998</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <v>1014.53934665188</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="8">
         <v>780.43547988886803</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="8">
         <v>682.17625668872699</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="8">
         <v>659.55560949800599</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="8">
         <v>639.95709350887205</v>
       </c>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="8">
         <v>100</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>98</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>96</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>94</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="8">
         <v>92</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="8">
         <v>90</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="8">
         <v>88</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="8">
         <v>86</v>
       </c>
-      <c r="K4" s="7">
+      <c r="K4" s="8">
         <v>84</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="8">
         <v>82</v>
       </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="8">
         <v>900</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="8">
         <v>774.34350596224499</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="8">
         <v>699.26192640775298</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="8">
         <v>614.94506608887696</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="8">
         <v>546.37677780696004</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="8">
         <v>516.55385551465599</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="8">
         <v>493.39921527331001</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="8">
         <v>466.46797102233597</v>
       </c>
-      <c r="K5" s="7">
+      <c r="K5" s="8">
         <v>445.55844157477901</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="8">
         <v>433.90523863231101</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="8">
         <v>180</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="8">
         <v>180</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <v>180</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="8">
         <v>180</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="8">
         <v>180</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="8">
         <v>180</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="8">
         <v>180</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="8">
         <v>180</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K6" s="8">
         <v>180</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="8">
         <v>180</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="8">
         <v>1000</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="8">
         <v>979.80555078111502</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="8">
         <v>961.58878479915597</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="8">
         <v>945.02478641744699</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="8">
         <v>929.86063962268202</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="8">
         <v>915.89587471672496</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="8">
         <v>902.96908503734801</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="8">
         <v>890.94852620953895</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K7" s="8">
         <v>879.72536210445298</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="8">
         <v>869.20871515059002</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="8">
         <v>2</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="8">
         <v>2</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="8">
         <v>2</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="8">
         <v>2</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="8">
         <v>2</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="8">
         <v>2</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="8">
         <v>2</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="8">
         <v>2</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="8">
         <v>2</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="8">
         <v>2</v>
       </c>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="8">
         <v>40</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="8">
         <v>40</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="8">
         <v>40</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="8">
         <v>40</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="8">
         <v>40</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="8">
         <v>40</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="8">
         <v>40</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="8">
         <v>40</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="8">
         <v>40</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="8">
         <v>40</v>
       </c>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="7">
+      <c r="B10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="8">
         <v>4900</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="8">
         <v>2920.35718593309</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="8">
         <v>2482.3036080431302</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="8">
         <v>2355.7698962539498</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="8">
         <v>2257.1873974662799</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="8">
         <v>1446.7371875369599</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="8">
         <v>1167.0421449154701</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="8">
         <v>1045.2676179954501</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="8">
         <v>1016.79641698969</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="8">
         <v>991.98582317815305</v>
       </c>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="8">
         <v>9125</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="8">
         <v>9125</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="8">
         <v>9125</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="8">
         <v>9125</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="8">
         <v>9125</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="8">
         <v>9125</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="8">
         <v>9125</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="8">
         <v>9125</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="8">
         <v>9125</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="8">
         <v>9125</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="7">
+      <c r="B12" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="8">
         <v>5</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="8">
         <v>5</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="8">
         <v>5</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="8">
         <v>5</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="8">
         <v>5</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="8">
         <v>5</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="8">
         <v>5</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="8">
         <v>5</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="8">
         <v>5</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="8">
         <v>5</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="5">
         <f>L12</f>
         <v>5</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="5">
         <f t="shared" ref="N12:P12" si="0">M12</f>
         <v>5</v>
       </c>
-      <c r="O12" s="4">
+      <c r="O12" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="10">
         <f>C2*C3+C4*C5+C6*C7*C8+C9*C10+C11*C12</f>
         <v>1231625</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="10">
         <f t="shared" ref="D13:L13" si="1">D2*D3+D4*D5+D6*D7*D8+D9*D10+D11*D12</f>
         <v>878093.66200318991</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="10">
         <f t="shared" si="1"/>
         <v>793589.99619886442</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="10">
         <f t="shared" si="1"/>
         <v>758674.39259213302</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="10">
         <f t="shared" si="1"/>
         <v>730503.59728945466</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="10">
         <f t="shared" si="1"/>
         <v>601451.57099404407</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="10">
         <f t="shared" si="1"/>
         <v>554446.94494077959</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="10">
         <f t="shared" si="1"/>
         <v>530154.57046582014</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="10">
         <f t="shared" si="1"/>
         <v>519571.5692692328</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="10">
         <f t="shared" si="1"/>
         <v>510594.65117025265</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="10">
         <v>83170.717417065098</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="10">
         <v>63818.928139816198</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="10">
         <v>59097.356922879699</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="10">
         <v>56997.722995768803</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="10">
         <v>55294.103433653698</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="10">
         <v>48469.809640264401</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="10">
         <v>45941.8749301102</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="10">
         <v>44573.215198433703</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="10">
         <v>43909.8222643443</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="10">
         <v>43348.909458775997</v>
       </c>
       <c r="M14" s="12"/>
@@ -3224,43 +3252,43 @@
       <c r="B15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="10">
         <f t="shared" ref="C15:L15" si="2">C14+C13</f>
         <v>1314795.7174170651</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="10">
         <f t="shared" si="2"/>
         <v>941912.59014300606</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="10">
         <f t="shared" si="2"/>
         <v>852687.35312174412</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="10">
         <f t="shared" si="2"/>
         <v>815672.11558790179</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="10">
         <f t="shared" si="2"/>
         <v>785797.70072310837</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="10">
         <f t="shared" si="2"/>
         <v>649921.38063430844</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="10">
         <f t="shared" si="2"/>
         <v>600388.81987088977</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="10">
         <f t="shared" si="2"/>
         <v>574727.78566425387</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="10">
         <f t="shared" si="2"/>
         <v>563481.39153357712</v>
       </c>
-      <c r="L15" s="9">
+      <c r="L15" s="10">
         <f t="shared" si="2"/>
         <v>553943.56062902859</v>
       </c>
@@ -3273,163 +3301,175 @@
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="5">
         <v>11</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="5">
         <v>10.78</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="5">
         <v>10.564399999999999</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="5">
         <v>10.353111999999999</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="5">
         <v>10.14604976</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="5">
         <v>9.9431287648000009</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="5">
         <v>9.7442661895039997</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="5">
         <v>9.5493808657139194</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="5">
         <v>9.3583932483996399</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="5">
         <v>9.1712253834316506</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="5">
+        <v>50</v>
+      </c>
+      <c r="D17" s="5">
+        <v>49</v>
+      </c>
+      <c r="E17" s="5">
+        <v>48</v>
+      </c>
+      <c r="F17" s="5">
         <v>47</v>
       </c>
-      <c r="C17" s="4">
-        <v>50</v>
-      </c>
-      <c r="D17" s="4">
-        <v>49</v>
-      </c>
-      <c r="E17" s="4">
-        <v>48</v>
-      </c>
-      <c r="F17" s="4">
-        <v>47</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="G17" s="5">
         <v>46</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="5">
         <v>45</v>
       </c>
-      <c r="I17" s="4">
+      <c r="I17" s="5">
         <v>44</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="5">
         <v>43</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="5">
         <v>42</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="5">
         <v>41</v>
       </c>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
+      <c r="M17" s="6">
+        <f>L17-1</f>
+        <v>40</v>
+      </c>
+      <c r="N17" s="6">
+        <f>M17-1</f>
+        <v>39</v>
+      </c>
+      <c r="O17" s="6">
+        <f>N17-1</f>
+        <v>38</v>
+      </c>
+      <c r="P17" s="6">
+        <f>O17-1</f>
+        <v>37</v>
+      </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B18" s="3" t="s">
+      <c r="A18" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="5">
         <v>100</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="5">
         <v>98</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="5">
         <v>96</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="5">
         <v>94</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="5">
         <v>92</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="5">
         <v>90</v>
       </c>
-      <c r="I18" s="4">
+      <c r="I18" s="5">
         <v>88</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="5">
         <v>86</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="5">
         <v>84</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="5">
         <v>82</v>
       </c>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="5"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="5">
         <v>6.2111801242236</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="5">
         <v>6.1490683229813703</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="5">
         <v>6.0881987577639798</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
         <v>6.02853416149068</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="5">
         <v>5.9700387577639704</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="5">
         <v>5.9126781863354001</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="5">
         <v>5.85641943304348</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="5">
         <v>5.80123076391056</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="5">
         <v>5.7470816631107597</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="5">
         <v>5.69394277454363</v>
       </c>
     </row>
@@ -3437,37 +3477,37 @@
       <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="5">
         <v>621.11801242236004</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="5">
         <v>602.60869565217399</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="5">
         <v>584.46708074534195</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="5">
         <v>566.682211180124</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="5">
         <v>549.24356571428495</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="5">
         <v>532.14103677018602</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="5">
         <v>515.36491010782595</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="5">
         <v>498.90584569630801</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="5">
         <v>482.75485970130399</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="5">
         <v>466.90330751257801</v>
       </c>
     </row>
@@ -3475,46 +3515,46 @@
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="7">
         <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="11" t="s">
-        <v>48</v>
+      <c r="B22" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="C22" s="12">
         <v>500</v>
@@ -3548,11 +3588,11 @@
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>49</v>
+      <c r="B23" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="C23" s="13">
         <v>4.9000000000000004</v>
@@ -3604,42 +3644,42 @@
       <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="5">
         <v>0.2</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="6">
         <f t="shared" ref="D24:L24" si="3">C24</f>
         <v>0.2</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="6">
         <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
@@ -3651,42 +3691,42 @@
       <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="5">
         <v>5000</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="6">
         <f t="shared" ref="D25:L25" si="4">C25</f>
         <v>5000</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="6">
         <f t="shared" si="4"/>
         <v>5000</v>
       </c>
@@ -3698,42 +3738,42 @@
       <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="5">
         <v>2000</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="6">
         <f t="shared" ref="D26:L26" si="5">C26</f>
         <v>2000</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
@@ -3749,582 +3789,582 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C1" s="4">
         <v>2021</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="4">
         <v>2022</v>
       </c>
-      <c r="E1" s="3">
+      <c r="E1" s="4">
         <v>2023</v>
       </c>
-      <c r="F1" s="3">
+      <c r="F1" s="4">
         <v>2024</v>
       </c>
-      <c r="G1" s="3">
+      <c r="G1" s="4">
         <v>2025</v>
       </c>
-      <c r="H1" s="3">
+      <c r="H1" s="4">
         <v>2026</v>
       </c>
-      <c r="I1" s="3">
+      <c r="I1" s="4">
         <v>2027</v>
       </c>
-      <c r="J1" s="3">
+      <c r="J1" s="4">
         <v>2028</v>
       </c>
-      <c r="K1" s="3">
+      <c r="K1" s="4">
         <v>2029</v>
       </c>
-      <c r="L1" s="3">
+      <c r="L1" s="4">
         <v>2030</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="5">
         <v>0.06</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <f t="shared" ref="D2:L2" si="0">C2</f>
         <v>0.06</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="6">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="6">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="6">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="6">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="6">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="6">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="6">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="4">
+        <v>53</v>
+      </c>
+      <c r="C3" s="5">
         <v>3</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <f t="shared" ref="D3:L3" si="1">C3</f>
         <v>3</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="5">
         <v>0.8</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <f t="shared" ref="D4:L4" si="2">C4</f>
         <v>0.8</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="6">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="6">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="6">
         <f t="shared" si="2"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="4">
+        <v>56</v>
+      </c>
+      <c r="C5" s="5">
         <f>C6*8</f>
         <v>8</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <f t="shared" ref="D5:L5" si="3">C5</f>
         <v>8</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="6">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="6">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="6">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="6">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="6">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="4">
+        <v>58</v>
+      </c>
+      <c r="C6" s="5">
         <v>1</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <f t="shared" ref="D6:L6" si="4">C6</f>
         <v>1</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="4">
+        <v>60</v>
+      </c>
+      <c r="C7" s="5">
         <v>10000</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <f t="shared" ref="D7:L7" si="5">C7</f>
         <v>10000</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="6">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="6">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="6">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="6">
         <f t="shared" si="5"/>
         <v>10000</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="4">
+        <v>62</v>
+      </c>
+      <c r="C8" s="5">
         <v>20</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <f t="shared" ref="D8:L8" si="6">C8</f>
         <v>20</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="6">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="6">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="6">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="6">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="6">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>0</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="6">
         <f t="shared" ref="D9:L9" si="7">C9</f>
         <v>0</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>0.12</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="6">
         <f t="shared" ref="D10:L10" si="8">C10</f>
         <v>0.12</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="6">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="6">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="6">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="6">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="6">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="6">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="6">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="6">
         <f t="shared" si="8"/>
         <v>0.12</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="6">
+        <v>66</v>
+      </c>
+      <c r="C11" s="7">
         <v>49</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="7">
         <v>49</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="7">
         <v>49</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="7">
         <v>49</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="7">
         <v>49</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="7">
         <v>49</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="7">
         <v>49</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="7">
         <v>49</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="7">
         <v>49</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="7">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="A12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="7">
         <v>50</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="7">
         <v>50</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="7">
         <v>50</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="7">
         <v>50</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="7">
         <v>50</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="7">
         <v>50</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="7">
         <v>50</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="7">
         <v>50</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="7">
         <v>50</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="7">
         <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="6">
+      <c r="A13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="7">
         <v>60</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="7">
         <v>60</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="7">
         <v>60</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="7">
         <v>60</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="7">
         <v>60</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="7">
         <v>60</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="7">
         <v>60</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="7">
         <v>60</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="7">
         <v>60</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="7">
         <v>60</v>
       </c>
     </row>
@@ -4336,10 +4376,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H1" sqref="H1:I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4347,32 +4387,38 @@
     <col min="3" max="3" width="12.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>76</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -4380,18 +4426,24 @@
       <c r="C2">
         <v>0.5</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <f>B2*C2*40</f>
         <v>400</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
-      <c r="F2" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="F2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" t="s">
         <v>80</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="15">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/港口25吨牵引车.xlsx
+++ b/data/港口25吨牵引车.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{881A5587-D0D9-554E-BCDB-36E4F52B8D2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3558544-AC23-484C-A822-7D9348DCAE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="20920" windowHeight="9660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20920" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="2" r:id="rId1"/>
@@ -297,7 +297,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -450,22 +450,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -474,7 +474,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
@@ -3788,8 +3788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -4300,34 +4300,34 @@
         <v>68</v>
       </c>
       <c r="C12" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="D12" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E12" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F12" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G12" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H12" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I12" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="J12" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="K12" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L12" s="7">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -4378,7 +4378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1:I2"/>
     </sheetView>
   </sheetViews>

--- a/data/港口25吨牵引车.xlsx
+++ b/data/港口25吨牵引车.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3558544-AC23-484C-A822-7D9348DCAE3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B946BF-3BD8-A24F-9B1A-0A7BA97788BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="20920" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4560" yWindow="-21100" windowWidth="38400" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="73">
   <si>
     <t>单位</t>
   </si>
@@ -81,30 +81,12 @@
     <t>百公里能耗</t>
   </si>
   <si>
-    <t>燃料价格</t>
-  </si>
-  <si>
-    <t>元/L</t>
-  </si>
-  <si>
     <t>低温能耗率</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>充能速度</t>
-  </si>
-  <si>
-    <t>L/小时</t>
-  </si>
-  <si>
-    <t>燃料生命周期排放因子</t>
-  </si>
-  <si>
-    <t>kgCO2/L</t>
-  </si>
-  <si>
     <t>保养费用</t>
   </si>
   <si>
@@ -150,9 +132,6 @@
     <t>车身单位成本</t>
   </si>
   <si>
-    <t>元/kwh</t>
-  </si>
-  <si>
     <t>电池容量</t>
   </si>
   <si>
@@ -162,12 +141,6 @@
     <t>kg/kwh</t>
   </si>
   <si>
-    <t>kWh/小时</t>
-  </si>
-  <si>
-    <t>kgCO2/kWh</t>
-  </si>
-  <si>
     <t>燃料电池系统功率</t>
   </si>
   <si>
@@ -186,12 +159,6 @@
     <t>元/kg</t>
   </si>
   <si>
-    <t>kg/小时</t>
-  </si>
-  <si>
-    <t>kgCO2/kg</t>
-  </si>
-  <si>
     <t>折现率</t>
   </si>
   <si>
@@ -289,7 +256,7 @@
   </si>
   <si>
     <t>否</t>
-    <phoneticPr fontId="6" type="noConversion"/>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -299,7 +266,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -343,12 +310,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFEBB07A"/>
-      <name val="Menlo"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="4"/>
@@ -372,7 +333,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -407,15 +368,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -434,7 +386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -471,16 +423,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -758,15 +704,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:L8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:12">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -800,20 +746,8 @@
       <c r="L1" s="4">
         <v>2030</v>
       </c>
-      <c r="M1" s="4">
-        <v>2031</v>
-      </c>
-      <c r="N1" s="4">
-        <v>2032</v>
-      </c>
-      <c r="O1" s="4">
-        <v>2033</v>
-      </c>
-      <c r="P1" s="4">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -850,12 +784,8 @@
       <c r="L2" s="8">
         <v>151552.51135753599</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-    </row>
-    <row r="3" spans="1:16">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -892,12 +822,8 @@
       <c r="L3" s="8">
         <v>120000</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -934,12 +860,8 @@
       <c r="L4" s="8">
         <v>2000</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:16">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -976,12 +898,8 @@
       <c r="L5" s="8">
         <v>9125</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1018,12 +936,8 @@
       <c r="L6" s="5">
         <v>0</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:16">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1070,12 +984,8 @@
         <f t="shared" si="0"/>
         <v>45625</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
@@ -1122,12 +1032,8 @@
         <f t="shared" si="1"/>
         <v>317177.51135753596</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="1:16">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
@@ -1164,12 +1070,8 @@
       <c r="L9" s="10">
         <v>62567.375099429002</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="1:16">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1216,12 +1118,8 @@
         <f t="shared" si="2"/>
         <v>379744.88645696494</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-    </row>
-    <row r="11" spans="1:16">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1258,365 +1156,203 @@
       <c r="L11" s="5">
         <v>29.181171674555198</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="1:16">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="4">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="D12" s="4">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="E12" s="4">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="F12" s="4">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="G12" s="4">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="H12" s="4">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="I12" s="4">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="J12" s="4">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="K12" s="4">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="L12" s="4">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="M12" s="4">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="N12" s="4">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="O12" s="4">
-        <v>8.1449999999999996</v>
-      </c>
-      <c r="P12" s="4">
-        <v>8.1449999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="1" t="s">
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="7">
+        <v>1</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7">
+        <v>1</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7">
-        <v>1</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1</v>
-      </c>
-      <c r="J13" s="7">
-        <v>1</v>
-      </c>
-      <c r="K13" s="7">
-        <v>1</v>
-      </c>
-      <c r="L13" s="7">
-        <v>1</v>
-      </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="C13" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" ref="D13:L13" si="3">C13</f>
+        <v>0.2</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+      <c r="L13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="12">
-        <v>6000</v>
-      </c>
-      <c r="D14" s="12">
-        <v>6000</v>
-      </c>
-      <c r="E14" s="12">
-        <v>6000</v>
-      </c>
-      <c r="F14" s="12">
-        <v>6000</v>
-      </c>
-      <c r="G14" s="12">
-        <v>6000</v>
-      </c>
-      <c r="H14" s="12">
-        <v>6000</v>
-      </c>
-      <c r="I14" s="12">
-        <v>6000</v>
-      </c>
-      <c r="J14" s="12">
-        <v>6000</v>
-      </c>
-      <c r="K14" s="12">
-        <v>6000</v>
-      </c>
-      <c r="L14" s="12">
-        <v>6000</v>
-      </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="C14" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" ref="D14:L14" si="4">C14</f>
+        <v>5000</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="D15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="E15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="F15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="G15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="H15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="I15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="J15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="K15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="L15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="M15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="N15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="O15" s="12">
-        <v>2.63</v>
-      </c>
-      <c r="P15" s="12">
-        <v>2.63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="D16" s="6">
-        <f t="shared" ref="D16:L16" si="3">C16</f>
-        <v>0.2</v>
-      </c>
-      <c r="E16" s="6">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="G16" s="6">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="H16" s="6">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="I16" s="6">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="J16" s="6">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="K16" s="6">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="L16" s="6">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="5">
-        <v>5000</v>
-      </c>
-      <c r="D17" s="6">
-        <f t="shared" ref="D17:L17" si="4">C17</f>
-        <v>5000</v>
-      </c>
-      <c r="E17" s="6">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="G17" s="6">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="H17" s="6">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="I17" s="6">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="J17" s="6">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="K17" s="6">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="L17" s="6">
-        <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="5">
-        <v>2000</v>
-      </c>
-      <c r="D18" s="6">
-        <f t="shared" ref="D18:L18" si="5">C18</f>
-        <v>2000</v>
-      </c>
-      <c r="E18" s="6">
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" ref="D15:L15" si="5">C15</f>
+        <v>2000</v>
+      </c>
+      <c r="E15" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F15" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G15" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H15" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I15" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J15" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K15" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L15" s="6">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13:P13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:12">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -1651,25 +1387,13 @@
       <c r="L1" s="4">
         <v>2030</v>
       </c>
-      <c r="M1" s="4">
-        <v>2031</v>
-      </c>
-      <c r="N1" s="4">
-        <v>2032</v>
-      </c>
-      <c r="O1" s="4">
-        <v>2033</v>
-      </c>
-      <c r="P1" s="4">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C2" s="8">
         <v>380</v>
@@ -1701,17 +1425,13 @@
       <c r="L2" s="8">
         <v>380</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-    </row>
-    <row r="3" spans="1:16">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C3" s="8">
         <v>900</v>
@@ -1743,17 +1463,13 @@
       <c r="L3" s="8">
         <v>433.90523863231101</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C4" s="8">
         <v>180</v>
@@ -1785,17 +1501,13 @@
       <c r="L4" s="8">
         <v>180</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:16">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C5" s="8">
         <v>1000</v>
@@ -1827,17 +1539,13 @@
       <c r="L5" s="8">
         <v>869.20871515059002</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C6" s="8">
         <v>2</v>
@@ -1869,12 +1577,8 @@
       <c r="L6" s="8">
         <v>2</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:16">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1911,14 +1615,10 @@
       <c r="L7" s="8">
         <v>9125</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>2</v>
@@ -1953,12 +1653,8 @@
       <c r="L8" s="8">
         <v>5</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="1:16">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
         <v>10</v>
       </c>
@@ -2005,12 +1701,8 @@
         <f t="shared" si="0"/>
         <v>523424.12813449057</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="1:16">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
@@ -2047,12 +1739,8 @@
       <c r="L10" s="10">
         <v>46956.775887712603</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-    </row>
-    <row r="11" spans="1:16">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -2099,17 +1787,13 @@
         <f t="shared" si="1"/>
         <v>570380.90402220318</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="1:16">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C12" s="5">
         <v>180</v>
@@ -2141,495 +1825,317 @@
       <c r="L12" s="5">
         <v>150.07459718342699</v>
       </c>
-      <c r="M12" s="5">
-        <f>L12</f>
-        <v>150.07459718342699</v>
-      </c>
-      <c r="N12" s="5">
-        <f t="shared" ref="N12:P12" si="2">M12</f>
-        <v>150.07459718342699</v>
-      </c>
-      <c r="O12" s="5">
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="4">
+        <v>380</v>
+      </c>
+      <c r="D13" s="4">
+        <v>380</v>
+      </c>
+      <c r="E13" s="4">
+        <v>380</v>
+      </c>
+      <c r="F13" s="4">
+        <v>380</v>
+      </c>
+      <c r="G13" s="4">
+        <v>380</v>
+      </c>
+      <c r="H13" s="4">
+        <v>380</v>
+      </c>
+      <c r="I13" s="4">
+        <v>380</v>
+      </c>
+      <c r="J13" s="4">
+        <v>380</v>
+      </c>
+      <c r="K13" s="4">
+        <v>380</v>
+      </c>
+      <c r="L13" s="4">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="5">
+        <v>6.2111801242236</v>
+      </c>
+      <c r="D14" s="5">
+        <v>6.1490683229813703</v>
+      </c>
+      <c r="E14" s="5">
+        <v>6.0881987577639798</v>
+      </c>
+      <c r="F14" s="5">
+        <v>6.02853416149068</v>
+      </c>
+      <c r="G14" s="5">
+        <v>5.9700387577639704</v>
+      </c>
+      <c r="H14" s="5">
+        <v>5.9126781863354001</v>
+      </c>
+      <c r="I14" s="5">
+        <v>5.85641943304348</v>
+      </c>
+      <c r="J14" s="5">
+        <v>5.80123076391056</v>
+      </c>
+      <c r="K14" s="5">
+        <v>5.7470816631107597</v>
+      </c>
+      <c r="L14" s="5">
+        <v>5.69394277454363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2360.24844720497</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2336.64596273292</v>
+      </c>
+      <c r="E15" s="5">
+        <v>2313.5155279503101</v>
+      </c>
+      <c r="F15" s="5">
+        <v>2290.8429813664602</v>
+      </c>
+      <c r="G15" s="5">
+        <v>2268.6147279503102</v>
+      </c>
+      <c r="H15" s="5">
+        <v>2246.8177108074501</v>
+      </c>
+      <c r="I15" s="5">
+        <v>2225.4393845565201</v>
+      </c>
+      <c r="J15" s="5">
+        <v>2204.4676902860101</v>
+      </c>
+      <c r="K15" s="5">
+        <v>2183.8910319820902</v>
+      </c>
+      <c r="L15" s="5">
+        <v>2163.6982543265799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="7">
+        <v>2</v>
+      </c>
+      <c r="D16" s="7">
+        <v>2</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>2</v>
+      </c>
+      <c r="G16" s="7">
+        <v>2</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2</v>
+      </c>
+      <c r="J16" s="7">
+        <v>2</v>
+      </c>
+      <c r="K16" s="7">
+        <v>2</v>
+      </c>
+      <c r="L16" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" ref="D17:L17" si="2">C17</f>
+        <v>0.2</v>
+      </c>
+      <c r="E17" s="6">
         <f t="shared" si="2"/>
-        <v>150.07459718342699</v>
-      </c>
-      <c r="P12" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="F17" s="6">
         <f t="shared" si="2"/>
-        <v>150.07459718342699</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="D13" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="E13" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="M13" s="7">
-        <f>L13</f>
-        <v>0.9</v>
-      </c>
-      <c r="N13" s="7">
-        <f>M13</f>
-        <v>0.9</v>
-      </c>
-      <c r="O13" s="7">
-        <f>N13</f>
-        <v>0.9</v>
-      </c>
-      <c r="P13" s="7">
-        <f>O13</f>
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="4">
-        <v>380</v>
-      </c>
-      <c r="D14" s="4">
-        <v>380</v>
-      </c>
-      <c r="E14" s="4">
-        <v>380</v>
-      </c>
-      <c r="F14" s="4">
-        <v>380</v>
-      </c>
-      <c r="G14" s="4">
-        <v>380</v>
-      </c>
-      <c r="H14" s="4">
-        <v>380</v>
-      </c>
-      <c r="I14" s="4">
-        <v>380</v>
-      </c>
-      <c r="J14" s="4">
-        <v>380</v>
-      </c>
-      <c r="K14" s="4">
-        <v>380</v>
-      </c>
-      <c r="L14" s="4">
-        <v>380</v>
-      </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="5">
-        <v>6.2111801242236</v>
-      </c>
-      <c r="D15" s="5">
-        <v>6.1490683229813703</v>
-      </c>
-      <c r="E15" s="5">
-        <v>6.0881987577639798</v>
-      </c>
-      <c r="F15" s="5">
-        <v>6.02853416149068</v>
-      </c>
-      <c r="G15" s="5">
-        <v>5.9700387577639704</v>
-      </c>
-      <c r="H15" s="5">
-        <v>5.9126781863354001</v>
-      </c>
-      <c r="I15" s="5">
-        <v>5.85641943304348</v>
-      </c>
-      <c r="J15" s="5">
-        <v>5.80123076391056</v>
-      </c>
-      <c r="K15" s="5">
-        <v>5.7470816631107597</v>
-      </c>
-      <c r="L15" s="5">
-        <v>5.69394277454363</v>
-      </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="5">
-        <v>2360.24844720497</v>
-      </c>
-      <c r="D16" s="5">
-        <v>2336.64596273292</v>
-      </c>
-      <c r="E16" s="5">
-        <v>2313.5155279503101</v>
-      </c>
-      <c r="F16" s="5">
-        <v>2290.8429813664602</v>
-      </c>
-      <c r="G16" s="5">
-        <v>2268.6147279503102</v>
-      </c>
-      <c r="H16" s="5">
-        <v>2246.8177108074501</v>
-      </c>
-      <c r="I16" s="5">
-        <v>2225.4393845565201</v>
-      </c>
-      <c r="J16" s="5">
-        <v>2204.4676902860101</v>
-      </c>
-      <c r="K16" s="5">
-        <v>2183.8910319820902</v>
-      </c>
-      <c r="L16" s="5">
-        <v>2163.6982543265799</v>
-      </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="7">
-        <v>2</v>
-      </c>
-      <c r="D17" s="7">
-        <v>2</v>
-      </c>
-      <c r="E17" s="7">
-        <v>2</v>
-      </c>
-      <c r="F17" s="7">
-        <v>2</v>
-      </c>
-      <c r="G17" s="7">
-        <v>2</v>
-      </c>
-      <c r="H17" s="7">
-        <v>2</v>
-      </c>
-      <c r="I17" s="7">
-        <v>2</v>
-      </c>
-      <c r="J17" s="7">
-        <v>2</v>
-      </c>
-      <c r="K17" s="7">
-        <v>2</v>
-      </c>
-      <c r="L17" s="7">
-        <v>2</v>
-      </c>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-    </row>
-    <row r="18" spans="1:16">
+        <v>0.2</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="K17" s="6">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="L17" s="6">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="12">
-        <v>250</v>
-      </c>
-      <c r="D18" s="12">
-        <v>250</v>
-      </c>
-      <c r="E18" s="12">
-        <v>250</v>
-      </c>
-      <c r="F18" s="12">
-        <v>250</v>
-      </c>
-      <c r="G18" s="12">
-        <v>250</v>
-      </c>
-      <c r="H18" s="12">
-        <v>250</v>
-      </c>
-      <c r="I18" s="12">
-        <v>250</v>
-      </c>
-      <c r="J18" s="12">
-        <v>250</v>
-      </c>
-      <c r="K18" s="12">
-        <v>250</v>
-      </c>
-      <c r="L18" s="12">
-        <v>250</v>
-      </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" ref="D18:L18" si="3">C18</f>
+        <v>5000</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="K18" s="6">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="L18" s="6">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="13">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="D19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="E19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="F19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="G19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="H19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="I19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="J19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="K19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="L19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="M19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="N19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="O19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="P19" s="12">
-        <v>0.57030000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="D20" s="6">
-        <f t="shared" ref="D20:L20" si="3">C20</f>
-        <v>0.2</v>
-      </c>
-      <c r="E20" s="6">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="F20" s="6">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="G20" s="6">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="H20" s="6">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="I20" s="6">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="J20" s="6">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="K20" s="6">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="L20" s="6">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="5">
-        <v>5000</v>
-      </c>
-      <c r="D21" s="6">
-        <f t="shared" ref="D21:L21" si="4">C21</f>
-        <v>5000</v>
-      </c>
-      <c r="E21" s="6">
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" ref="D19:L19" si="4">C19</f>
+        <v>2000</v>
+      </c>
+      <c r="E19" s="6">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="F21" s="6">
+        <v>2000</v>
+      </c>
+      <c r="F19" s="6">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="G21" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G19" s="6">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="H21" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H19" s="6">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="I21" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I19" s="6">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="J21" s="6">
+        <v>2000</v>
+      </c>
+      <c r="J19" s="6">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="K21" s="6">
+        <v>2000</v>
+      </c>
+      <c r="K19" s="6">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="L21" s="6">
+        <v>2000</v>
+      </c>
+      <c r="L19" s="6">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="5">
-        <v>2000</v>
-      </c>
-      <c r="D22" s="6">
-        <f t="shared" ref="D22:L22" si="5">C22</f>
-        <v>2000</v>
-      </c>
-      <c r="E22" s="6">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="F22" s="6">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="G22" s="6">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="H22" s="6">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="I22" s="6">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="J22" s="6">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="K22" s="6">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="L22" s="6">
-        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17:P17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:12">
       <c r="A1" s="4"/>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2664,25 +2170,13 @@
       <c r="L1" s="4">
         <v>2030</v>
       </c>
-      <c r="M1" s="4">
-        <v>2031</v>
-      </c>
-      <c r="N1" s="4">
-        <v>2032</v>
-      </c>
-      <c r="O1" s="4">
-        <v>2033</v>
-      </c>
-      <c r="P1" s="4">
-        <v>2034</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C2" s="8">
         <v>120</v>
@@ -2714,17 +2208,13 @@
       <c r="L2" s="8">
         <v>120</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-    </row>
-    <row r="3" spans="1:16">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="4" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C3" s="8">
         <v>4500</v>
@@ -2756,17 +2246,13 @@
       <c r="L3" s="8">
         <v>639.95709350887205</v>
       </c>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="1:16">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="4" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C4" s="8">
         <v>100</v>
@@ -2798,17 +2284,13 @@
       <c r="L4" s="8">
         <v>82</v>
       </c>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="1:16">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C5" s="8">
         <v>900</v>
@@ -2840,17 +2322,13 @@
       <c r="L5" s="8">
         <v>433.90523863231101</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="1:16">
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C6" s="8">
         <v>180</v>
@@ -2882,17 +2360,13 @@
       <c r="L6" s="8">
         <v>180</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-    </row>
-    <row r="7" spans="1:16">
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C7" s="8">
         <v>1000</v>
@@ -2924,17 +2398,13 @@
       <c r="L7" s="8">
         <v>869.20871515059002</v>
       </c>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16">
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C8" s="8">
         <v>2</v>
@@ -2966,12 +2436,8 @@
       <c r="L8" s="8">
         <v>2</v>
       </c>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-    </row>
-    <row r="9" spans="1:16">
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -3008,17 +2474,13 @@
       <c r="L9" s="8">
         <v>40</v>
       </c>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-    </row>
-    <row r="10" spans="1:16">
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C10" s="8">
         <v>4900</v>
@@ -3050,12 +2512,8 @@
       <c r="L10" s="8">
         <v>991.98582317815305</v>
       </c>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-    </row>
-    <row r="11" spans="1:16">
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -3092,17 +2550,13 @@
       <c r="L11" s="8">
         <v>9125</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-    </row>
-    <row r="12" spans="1:16">
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C12" s="8">
         <v>5</v>
@@ -3134,24 +2588,8 @@
       <c r="L12" s="8">
         <v>5</v>
       </c>
-      <c r="M12" s="5">
-        <f>L12</f>
-        <v>5</v>
-      </c>
-      <c r="N12" s="5">
-        <f t="shared" ref="N12:P12" si="0">M12</f>
-        <v>5</v>
-      </c>
-      <c r="O12" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="P12" s="5">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
@@ -3163,47 +2601,43 @@
         <v>1231625</v>
       </c>
       <c r="D13" s="10">
-        <f t="shared" ref="D13:L13" si="1">D2*D3+D4*D5+D6*D7*D8+D9*D10+D11*D12</f>
+        <f t="shared" ref="D13:L13" si="0">D2*D3+D4*D5+D6*D7*D8+D9*D10+D11*D12</f>
         <v>878093.66200318991</v>
       </c>
       <c r="E13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>793589.99619886442</v>
       </c>
       <c r="F13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>758674.39259213302</v>
       </c>
       <c r="G13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>730503.59728945466</v>
       </c>
       <c r="H13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>601451.57099404407</v>
       </c>
       <c r="I13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>554446.94494077959</v>
       </c>
       <c r="J13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>530154.57046582014</v>
       </c>
       <c r="K13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>519571.5692692328</v>
       </c>
       <c r="L13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>510594.65117025265</v>
       </c>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-    </row>
-    <row r="14" spans="1:16">
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="9" t="s">
         <v>11</v>
       </c>
@@ -3240,12 +2674,8 @@
       <c r="L14" s="10">
         <v>43348.909458775997</v>
       </c>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-    </row>
-    <row r="15" spans="1:16">
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
@@ -3253,51 +2683,47 @@
         <v>2</v>
       </c>
       <c r="C15" s="10">
-        <f t="shared" ref="C15:L15" si="2">C14+C13</f>
+        <f t="shared" ref="C15:L15" si="1">C14+C13</f>
         <v>1314795.7174170651</v>
       </c>
       <c r="D15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>941912.59014300606</v>
       </c>
       <c r="E15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>852687.35312174412</v>
       </c>
       <c r="F15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>815672.11558790179</v>
       </c>
       <c r="G15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>785797.70072310837</v>
       </c>
       <c r="H15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>649921.38063430844</v>
       </c>
       <c r="I15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>600388.81987088977</v>
       </c>
       <c r="J15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>574727.78566425387</v>
       </c>
       <c r="K15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>563481.39153357712</v>
       </c>
       <c r="L15" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>553943.56062902859</v>
       </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-    </row>
-    <row r="16" spans="1:16">
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -3334,452 +2760,302 @@
       <c r="L16" s="5">
         <v>9.1712253834316506</v>
       </c>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-    </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="5">
+        <v>100</v>
+      </c>
+      <c r="D17" s="5">
+        <v>98</v>
+      </c>
+      <c r="E17" s="5">
+        <v>96</v>
+      </c>
+      <c r="F17" s="5">
+        <v>94</v>
+      </c>
+      <c r="G17" s="5">
+        <v>92</v>
+      </c>
+      <c r="H17" s="5">
+        <v>90</v>
+      </c>
+      <c r="I17" s="5">
+        <v>88</v>
+      </c>
+      <c r="J17" s="5">
+        <v>86</v>
+      </c>
+      <c r="K17" s="5">
+        <v>84</v>
+      </c>
+      <c r="L17" s="5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="5">
+        <v>6.2111801242236</v>
+      </c>
+      <c r="D18" s="5">
+        <v>6.1490683229813703</v>
+      </c>
+      <c r="E18" s="5">
+        <v>6.0881987577639798</v>
+      </c>
+      <c r="F18" s="5">
+        <v>6.02853416149068</v>
+      </c>
+      <c r="G18" s="5">
+        <v>5.9700387577639704</v>
+      </c>
+      <c r="H18" s="5">
+        <v>5.9126781863354001</v>
+      </c>
+      <c r="I18" s="5">
+        <v>5.85641943304348</v>
+      </c>
+      <c r="J18" s="5">
+        <v>5.80123076391056</v>
+      </c>
+      <c r="K18" s="5">
+        <v>5.7470816631107597</v>
+      </c>
+      <c r="L18" s="5">
+        <v>5.69394277454363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="5">
+        <v>621.11801242236004</v>
+      </c>
+      <c r="D19" s="5">
+        <v>602.60869565217399</v>
+      </c>
+      <c r="E19" s="5">
+        <v>584.46708074534195</v>
+      </c>
+      <c r="F19" s="5">
+        <v>566.682211180124</v>
+      </c>
+      <c r="G19" s="5">
+        <v>549.24356571428495</v>
+      </c>
+      <c r="H19" s="5">
+        <v>532.14103677018602</v>
+      </c>
+      <c r="I19" s="5">
+        <v>515.36491010782595</v>
+      </c>
+      <c r="J19" s="5">
+        <v>498.90584569630801</v>
+      </c>
+      <c r="K19" s="5">
+        <v>482.75485970130399</v>
+      </c>
+      <c r="L19" s="5">
+        <v>466.90330751257801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="5">
-        <v>50</v>
-      </c>
-      <c r="D17" s="5">
-        <v>49</v>
-      </c>
-      <c r="E17" s="5">
-        <v>48</v>
-      </c>
-      <c r="F17" s="5">
-        <v>47</v>
-      </c>
-      <c r="G17" s="5">
-        <v>46</v>
-      </c>
-      <c r="H17" s="5">
-        <v>45</v>
-      </c>
-      <c r="I17" s="5">
-        <v>44</v>
-      </c>
-      <c r="J17" s="5">
-        <v>43</v>
-      </c>
-      <c r="K17" s="5">
-        <v>42</v>
-      </c>
-      <c r="L17" s="5">
-        <v>41</v>
-      </c>
-      <c r="M17" s="6">
-        <f>L17-1</f>
-        <v>40</v>
-      </c>
-      <c r="N17" s="6">
-        <f>M17-1</f>
-        <v>39</v>
-      </c>
-      <c r="O17" s="6">
-        <f>N17-1</f>
-        <v>38</v>
-      </c>
-      <c r="P17" s="6">
-        <f>O17-1</f>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="5">
-        <v>100</v>
-      </c>
-      <c r="D18" s="5">
-        <v>98</v>
-      </c>
-      <c r="E18" s="5">
-        <v>96</v>
-      </c>
-      <c r="F18" s="5">
-        <v>94</v>
-      </c>
-      <c r="G18" s="5">
-        <v>92</v>
-      </c>
-      <c r="H18" s="5">
-        <v>90</v>
-      </c>
-      <c r="I18" s="5">
-        <v>88</v>
-      </c>
-      <c r="J18" s="5">
-        <v>86</v>
-      </c>
-      <c r="K18" s="5">
-        <v>84</v>
-      </c>
-      <c r="L18" s="5">
-        <v>82</v>
-      </c>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="5">
-        <v>6.2111801242236</v>
-      </c>
-      <c r="D19" s="5">
-        <v>6.1490683229813703</v>
-      </c>
-      <c r="E19" s="5">
-        <v>6.0881987577639798</v>
-      </c>
-      <c r="F19" s="5">
-        <v>6.02853416149068</v>
-      </c>
-      <c r="G19" s="5">
-        <v>5.9700387577639704</v>
-      </c>
-      <c r="H19" s="5">
-        <v>5.9126781863354001</v>
-      </c>
-      <c r="I19" s="5">
-        <v>5.85641943304348</v>
-      </c>
-      <c r="J19" s="5">
-        <v>5.80123076391056</v>
-      </c>
-      <c r="K19" s="5">
-        <v>5.7470816631107597</v>
-      </c>
-      <c r="L19" s="5">
-        <v>5.69394277454363</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="5">
-        <v>621.11801242236004</v>
-      </c>
-      <c r="D20" s="5">
-        <v>602.60869565217399</v>
-      </c>
-      <c r="E20" s="5">
-        <v>584.46708074534195</v>
-      </c>
-      <c r="F20" s="5">
-        <v>566.682211180124</v>
-      </c>
-      <c r="G20" s="5">
-        <v>549.24356571428495</v>
-      </c>
-      <c r="H20" s="5">
-        <v>532.14103677018602</v>
-      </c>
-      <c r="I20" s="5">
-        <v>515.36491010782595</v>
-      </c>
-      <c r="J20" s="5">
-        <v>498.90584569630801</v>
-      </c>
-      <c r="K20" s="5">
-        <v>482.75485970130399</v>
-      </c>
-      <c r="L20" s="5">
-        <v>466.90330751257801</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="B20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F20" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G20" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J20" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K20" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L20" s="7">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F21" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G21" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J21" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K21" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L21" s="7">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="2" t="s">
+      <c r="C21" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" ref="D21:L21" si="2">C21</f>
+        <v>0.2</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="H21" s="6">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="L21" s="6">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="12">
-        <v>500</v>
-      </c>
-      <c r="D22" s="12">
-        <v>500</v>
-      </c>
-      <c r="E22" s="12">
-        <v>500</v>
-      </c>
-      <c r="F22" s="12">
-        <v>500</v>
-      </c>
-      <c r="G22" s="12">
-        <v>500</v>
-      </c>
-      <c r="H22" s="12">
-        <v>500</v>
-      </c>
-      <c r="I22" s="12">
-        <v>500</v>
-      </c>
-      <c r="J22" s="12">
-        <v>500</v>
-      </c>
-      <c r="K22" s="12">
-        <v>500</v>
-      </c>
-      <c r="L22" s="12">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="2" t="s">
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="5">
+        <v>5000</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" ref="D22:L22" si="3">C22</f>
+        <v>5000</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="F22" s="6">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="H22" s="6">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="J22" s="6">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="K22" s="6">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="L22" s="6">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="D23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="E23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="H23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="I23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="J23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="K23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="L23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="M23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="N23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="O23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="P23" s="13">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="D24" s="6">
-        <f t="shared" ref="D24:L24" si="3">C24</f>
-        <v>0.2</v>
-      </c>
-      <c r="E24" s="6">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="F24" s="6">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="G24" s="6">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="H24" s="6">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="I24" s="6">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="J24" s="6">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="K24" s="6">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-      <c r="L24" s="6">
-        <f t="shared" si="3"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="5">
-        <v>5000</v>
-      </c>
-      <c r="D25" s="6">
-        <f t="shared" ref="D25:L25" si="4">C25</f>
-        <v>5000</v>
-      </c>
-      <c r="E25" s="6">
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2000</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" ref="D23:L23" si="4">C23</f>
+        <v>2000</v>
+      </c>
+      <c r="E23" s="6">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="F25" s="6">
+        <v>2000</v>
+      </c>
+      <c r="F23" s="6">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="G25" s="6">
+        <v>2000</v>
+      </c>
+      <c r="G23" s="6">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="H25" s="6">
+        <v>2000</v>
+      </c>
+      <c r="H23" s="6">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="I25" s="6">
+        <v>2000</v>
+      </c>
+      <c r="I23" s="6">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="J25" s="6">
+        <v>2000</v>
+      </c>
+      <c r="J23" s="6">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="K25" s="6">
+        <v>2000</v>
+      </c>
+      <c r="K23" s="6">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="L25" s="6">
+        <v>2000</v>
+      </c>
+      <c r="L23" s="6">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="5">
-        <v>2000</v>
-      </c>
-      <c r="D26" s="6">
-        <f t="shared" ref="D26:L26" si="5">C26</f>
-        <v>2000</v>
-      </c>
-      <c r="E26" s="6">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="F26" s="6">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="G26" s="6">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="H26" s="6">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="I26" s="6">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="J26" s="6">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="K26" s="6">
-        <f t="shared" si="5"/>
-        <v>2000</v>
-      </c>
-      <c r="L26" s="6">
-        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3788,7 +3064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
@@ -3832,10 +3108,10 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5">
         <v>0.06</v>
@@ -3879,10 +3155,10 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C3" s="5">
         <v>3</v>
@@ -3926,10 +3202,10 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5">
         <v>0.8</v>
@@ -3973,10 +3249,10 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="C5" s="5">
         <f>C6*8</f>
@@ -4021,10 +3297,10 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
@@ -4068,10 +3344,10 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C7" s="5">
         <v>10000</v>
@@ -4115,10 +3391,10 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C8" s="5">
         <v>20</v>
@@ -4162,10 +3438,10 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C9" s="5">
         <v>0</v>
@@ -4209,10 +3485,10 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C10" s="5">
         <v>0.12</v>
@@ -4256,10 +3532,10 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C11" s="7">
         <v>49</v>
@@ -4294,10 +3570,10 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C12" s="7">
         <v>100</v>
@@ -4332,10 +3608,10 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C13" s="7">
         <v>60</v>
@@ -4369,7 +3645,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4389,36 +3665,36 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="12" t="s">
         <v>71</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -4434,20 +3710,20 @@
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="I2" s="15">
+        <v>69</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="13">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/港口25吨牵引车.xlsx
+++ b/data/港口25吨牵引车.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B946BF-3BD8-A24F-9B1A-0A7BA97788BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F816A395-3BD6-0A41-94D4-1AA8A78BC17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4560" yWindow="-21100" windowWidth="38400" windowHeight="19840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="2080" windowWidth="26940" windowHeight="14680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="2" r:id="rId1"/>
@@ -706,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1127,34 +1127,43 @@
         <v>5</v>
       </c>
       <c r="C11" s="5">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D11" s="5">
-        <v>34.299999999999997</v>
+        <f>C11*0.98</f>
+        <v>44.1</v>
       </c>
       <c r="E11" s="5">
-        <v>33.613999999999997</v>
+        <f t="shared" ref="E11:L11" si="3">D11*0.98</f>
+        <v>43.218000000000004</v>
       </c>
       <c r="F11" s="5">
-        <v>32.941719999999997</v>
+        <f t="shared" si="3"/>
+        <v>42.353640000000006</v>
       </c>
       <c r="G11" s="5">
-        <v>32.2828856</v>
+        <f t="shared" si="3"/>
+        <v>41.506567200000006</v>
       </c>
       <c r="H11" s="5">
-        <v>31.637227888000002</v>
+        <f t="shared" si="3"/>
+        <v>40.676435856000005</v>
       </c>
       <c r="I11" s="5">
-        <v>31.004483330239999</v>
+        <f t="shared" si="3"/>
+        <v>39.862907138880004</v>
       </c>
       <c r="J11" s="5">
-        <v>30.384393663635201</v>
+        <f t="shared" si="3"/>
+        <v>39.065648996102404</v>
       </c>
       <c r="K11" s="5">
-        <v>29.776705790362499</v>
+        <f t="shared" si="3"/>
+        <v>38.284336016180355</v>
       </c>
       <c r="L11" s="5">
-        <v>29.181171674555198</v>
+        <f t="shared" si="3"/>
+        <v>37.518649295856747</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1206,39 +1215,39 @@
         <v>0.2</v>
       </c>
       <c r="D13" s="6">
-        <f t="shared" ref="D13:L13" si="3">C13</f>
+        <f t="shared" ref="D13:L13" si="4">C13</f>
         <v>0.2</v>
       </c>
       <c r="E13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="I13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
       <c r="L13" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
     </row>
@@ -1253,39 +1262,39 @@
         <v>5000</v>
       </c>
       <c r="D14" s="6">
-        <f t="shared" ref="D14:L14" si="4">C14</f>
+        <f t="shared" ref="D14:L14" si="5">C14</f>
         <v>5000</v>
       </c>
       <c r="E14" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5000</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5000</v>
       </c>
       <c r="G14" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5000</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5000</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5000</v>
       </c>
       <c r="J14" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5000</v>
       </c>
       <c r="K14" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5000</v>
       </c>
       <c r="L14" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5000</v>
       </c>
     </row>
@@ -1300,39 +1309,39 @@
         <v>2000</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" ref="D15:L15" si="5">C15</f>
+        <f t="shared" ref="D15:L15" si="6">C15</f>
         <v>2000</v>
       </c>
       <c r="E15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="L15" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
     </row>
@@ -1347,7 +1356,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1796,34 +1805,43 @@
         <v>21</v>
       </c>
       <c r="C12" s="5">
-        <v>180</v>
+        <v>230</v>
       </c>
       <c r="D12" s="5">
-        <v>176.4</v>
+        <f>C12*0.98</f>
+        <v>225.4</v>
       </c>
       <c r="E12" s="5">
-        <v>172.87200000000001</v>
+        <f t="shared" ref="E12:L12" si="2">D12*0.98</f>
+        <v>220.892</v>
       </c>
       <c r="F12" s="5">
-        <v>169.41455999999999</v>
+        <f t="shared" si="2"/>
+        <v>216.47415999999998</v>
       </c>
       <c r="G12" s="5">
-        <v>166.0262688</v>
+        <f t="shared" si="2"/>
+        <v>212.14467679999998</v>
       </c>
       <c r="H12" s="5">
-        <v>162.70574342399999</v>
+        <f t="shared" si="2"/>
+        <v>207.90178326399999</v>
       </c>
       <c r="I12" s="5">
-        <v>159.45162855551999</v>
+        <f t="shared" si="2"/>
+        <v>203.74374759871998</v>
       </c>
       <c r="J12" s="5">
-        <v>156.26259598441001</v>
+        <f t="shared" si="2"/>
+        <v>199.66887264674557</v>
       </c>
       <c r="K12" s="5">
-        <v>153.13734406472099</v>
+        <f t="shared" si="2"/>
+        <v>195.67549519381066</v>
       </c>
       <c r="L12" s="5">
-        <v>150.07459718342699</v>
+        <f t="shared" si="2"/>
+        <v>191.76198528993444</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1989,39 +2007,39 @@
         <v>0.2</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" ref="D17:L17" si="2">C17</f>
+        <f t="shared" ref="D17:L17" si="3">C17</f>
         <v>0.2</v>
       </c>
       <c r="E17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="I17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="J17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="L17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
     </row>
@@ -2036,39 +2054,39 @@
         <v>5000</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" ref="D18:L18" si="3">C18</f>
+        <f t="shared" ref="D18:L18" si="4">C18</f>
         <v>5000</v>
       </c>
       <c r="E18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5000</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5000</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5000</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5000</v>
       </c>
       <c r="I18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5000</v>
       </c>
       <c r="J18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5000</v>
       </c>
       <c r="K18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5000</v>
       </c>
       <c r="L18" s="6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5000</v>
       </c>
     </row>
@@ -2083,39 +2101,39 @@
         <v>2000</v>
       </c>
       <c r="D19" s="6">
-        <f t="shared" ref="D19:L19" si="4">C19</f>
+        <f t="shared" ref="D19:L19" si="5">C19</f>
         <v>2000</v>
       </c>
       <c r="E19" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
       <c r="J19" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
       <c r="K19" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
       <c r="L19" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
     </row>
@@ -2129,8 +2147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2731,10 +2749,11 @@
         <v>7</v>
       </c>
       <c r="C16" s="5">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D16" s="5">
-        <v>10.78</v>
+        <f>C16*0.98</f>
+        <v>13.719999999999999</v>
       </c>
       <c r="E16" s="5">
         <v>10.564399999999999</v>

--- a/data/港口25吨牵引车.xlsx
+++ b/data/港口25吨牵引车.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangge/Mygithub/Vehicle-LCA-economy/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F816A395-3BD6-0A41-94D4-1AA8A78BC17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41213B8E-9426-9646-AF88-ADE61ADB3D1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1320" yWindow="2080" windowWidth="26940" windowHeight="14680" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-4560" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="燃油汽车" sheetId="2" r:id="rId1"/>
@@ -707,7 +707,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1127,43 +1127,43 @@
         <v>5</v>
       </c>
       <c r="C11" s="5">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D11" s="5">
         <f>C11*0.98</f>
-        <v>44.1</v>
+        <v>34.299999999999997</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ref="E11:L11" si="3">D11*0.98</f>
-        <v>43.218000000000004</v>
+        <v>33.613999999999997</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="3"/>
-        <v>42.353640000000006</v>
+        <v>32.941719999999997</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="3"/>
-        <v>41.506567200000006</v>
+        <v>32.282885599999993</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="3"/>
-        <v>40.676435856000005</v>
+        <v>31.637227887999991</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="3"/>
-        <v>39.862907138880004</v>
+        <v>31.004483330239992</v>
       </c>
       <c r="J11" s="5">
         <f t="shared" si="3"/>
-        <v>39.065648996102404</v>
+        <v>30.384393663635191</v>
       </c>
       <c r="K11" s="5">
         <f t="shared" si="3"/>
-        <v>38.284336016180355</v>
+        <v>29.776705790362485</v>
       </c>
       <c r="L11" s="5">
         <f t="shared" si="3"/>
-        <v>37.518649295856747</v>
+        <v>29.181171674555234</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1356,7 +1356,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -1805,43 +1805,43 @@
         <v>21</v>
       </c>
       <c r="C12" s="5">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="D12" s="5">
         <f>C12*0.98</f>
-        <v>225.4</v>
+        <v>176.4</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ref="E12:L12" si="2">D12*0.98</f>
-        <v>220.892</v>
+        <v>172.87200000000001</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="2"/>
-        <v>216.47415999999998</v>
+        <v>169.41456000000002</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="2"/>
-        <v>212.14467679999998</v>
+        <v>166.02626880000003</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="2"/>
-        <v>207.90178326399999</v>
+        <v>162.70574342400002</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" si="2"/>
-        <v>203.74374759871998</v>
+        <v>159.45162855552002</v>
       </c>
       <c r="J12" s="5">
         <f t="shared" si="2"/>
-        <v>199.66887264674557</v>
+        <v>156.26259598440961</v>
       </c>
       <c r="K12" s="5">
         <f t="shared" si="2"/>
-        <v>195.67549519381066</v>
+        <v>153.13734406472142</v>
       </c>
       <c r="L12" s="5">
         <f t="shared" si="2"/>
-        <v>191.76198528993444</v>
+        <v>150.07459718342699</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2148,7 +2148,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -2749,11 +2749,11 @@
         <v>7</v>
       </c>
       <c r="C16" s="5">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D16" s="5">
         <f>C16*0.98</f>
-        <v>13.719999999999999</v>
+        <v>10.78</v>
       </c>
       <c r="E16" s="5">
         <v>10.564399999999999</v>
